--- a/Matching Diagram/TakeOff.xlsx
+++ b/Matching Diagram/TakeOff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamed Jahantigh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CE68E-6459-42C2-BFA5-A83B9263AED9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D3C6B-9511-4113-8986-BE8A590756AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="13" r:id="rId1"/>
@@ -696,94 +696,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.771008795469052E-2</c:v>
+                  <c:v>1.5584877400127659E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5420175909381041E-2</c:v>
+                  <c:v>3.1169754800255318E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3130263864071561E-2</c:v>
+                  <c:v>4.6754632200382978E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0840351818762082E-2</c:v>
+                  <c:v>6.2339509600510636E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8550439773452602E-2</c:v>
+                  <c:v>7.7924387000638293E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10626052772814312</c:v>
+                  <c:v>9.3509264400765957E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12397061568283364</c:v>
+                  <c:v>0.10909414180089362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14168070363752416</c:v>
+                  <c:v>0.12467901920102127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1593907915922147</c:v>
+                  <c:v>0.14026389660114894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1771008795469052</c:v>
+                  <c:v>0.15584877400127659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19481096750159574</c:v>
+                  <c:v>0.17143365140140426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21252105545628625</c:v>
+                  <c:v>0.18701852880153191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23023114341097678</c:v>
+                  <c:v>0.20260340620165956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24794123136566729</c:v>
+                  <c:v>0.21818828360178724</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26565131932035779</c:v>
+                  <c:v>0.23377316100191489</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28336140727504833</c:v>
+                  <c:v>0.24935803840204254</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30107149522973886</c:v>
+                  <c:v>0.26494291580217022</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3187815831844294</c:v>
+                  <c:v>0.28052779320229787</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33649167113911987</c:v>
+                  <c:v>0.29611267060242552</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35420175909381041</c:v>
+                  <c:v>0.31169754800255317</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.37191184704850094</c:v>
+                  <c:v>0.32728242540268082</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.34286730280280853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35845218020293618</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37403705760306383</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.38962193500319148</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.40733202295788201</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.42504211091257249</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.44275219886726302</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.46046228682195356</c:v>
+                  <c:v>0.40520681240331913</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.47817237477664409</c:v>
+                  <c:v>0.42079168980344678</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.49588246273133457</c:v>
+                  <c:v>0.43637656720357448</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.51359255068602516</c:v>
+                  <c:v>0.45196144460370213</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53130263864071559</c:v>
+                  <c:v>0.46754632200382978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,94 +931,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.0506417631746921E-2</c:v>
+                  <c:v>1.771008795469052E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1012835263493842E-2</c:v>
+                  <c:v>3.5420175909381041E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1519252895240767E-2</c:v>
+                  <c:v>5.3130263864071561E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2025670526987685E-2</c:v>
+                  <c:v>7.0840351818762082E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10253208815873462</c:v>
+                  <c:v>8.8550439773452602E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12303850579048153</c:v>
+                  <c:v>0.10626052772814312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14354492342222847</c:v>
+                  <c:v>0.12397061568283364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16405134105397537</c:v>
+                  <c:v>0.14168070363752416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1845577586857223</c:v>
+                  <c:v>0.1593907915922147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20506417631746923</c:v>
+                  <c:v>0.1771008795469052</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22557059394921614</c:v>
+                  <c:v>0.19481096750159574</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24607701158096307</c:v>
+                  <c:v>0.21252105545628625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26658342921271</c:v>
+                  <c:v>0.23023114341097678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28708984684445693</c:v>
+                  <c:v>0.24794123136566729</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30759626447620381</c:v>
+                  <c:v>0.26565131932035779</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32810268210795074</c:v>
+                  <c:v>0.28336140727504833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34860909973969767</c:v>
+                  <c:v>0.30107149522973886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3691155173714446</c:v>
+                  <c:v>0.3187815831844294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38962193500319153</c:v>
+                  <c:v>0.33649167113911987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.41012835263493846</c:v>
+                  <c:v>0.35420175909381041</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.43063477026668534</c:v>
+                  <c:v>0.37191184704850094</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.45114118789843227</c:v>
+                  <c:v>0.38962193500319148</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4716476055301792</c:v>
+                  <c:v>0.40733202295788201</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.49215402316192614</c:v>
+                  <c:v>0.42504211091257249</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.51266044079367301</c:v>
+                  <c:v>0.44275219886726302</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53316685842542</c:v>
+                  <c:v>0.46046228682195356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.55367327605716687</c:v>
+                  <c:v>0.47817237477664409</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.57417969368891386</c:v>
+                  <c:v>0.49588246273133457</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59468611132066074</c:v>
+                  <c:v>0.51359255068602516</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.61519252895240761</c:v>
+                  <c:v>0.53130263864071559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,94 +1166,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.4351370937699467E-2</c:v>
+                  <c:v>2.0506417631746921E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8702741875398935E-2</c:v>
+                  <c:v>4.1012835263493842E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3054112813098399E-2</c:v>
+                  <c:v>6.1519252895240767E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7405483750797869E-2</c:v>
+                  <c:v>8.2025670526987685E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12175685468849733</c:v>
+                  <c:v>0.10253208815873462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1461082256261968</c:v>
+                  <c:v>0.12303850579048153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17045959656389625</c:v>
+                  <c:v>0.14354492342222847</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19481096750159574</c:v>
+                  <c:v>0.16405134105397537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2191623384392952</c:v>
+                  <c:v>0.1845577586857223</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24351370937699465</c:v>
+                  <c:v>0.20506417631746923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26786508031469414</c:v>
+                  <c:v>0.22557059394921614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29221645125239359</c:v>
+                  <c:v>0.24607701158096307</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31656782219009305</c:v>
+                  <c:v>0.26658342921271</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34091919312779251</c:v>
+                  <c:v>0.28708984684445693</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36527056406549202</c:v>
+                  <c:v>0.30759626447620381</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38962193500319148</c:v>
+                  <c:v>0.32810268210795074</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41397330594089093</c:v>
+                  <c:v>0.34860909973969767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.43832467687859039</c:v>
+                  <c:v>0.3691155173714446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46267604781628985</c:v>
+                  <c:v>0.38962193500319153</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48702741875398931</c:v>
+                  <c:v>0.41012835263493846</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.51137878969168882</c:v>
+                  <c:v>0.43063477026668534</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53573016062938827</c:v>
+                  <c:v>0.45114118789843227</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.56008153156708773</c:v>
+                  <c:v>0.4716476055301792</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58443290250478719</c:v>
+                  <c:v>0.49215402316192614</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.60878427344248665</c:v>
+                  <c:v>0.51266044079367301</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6331356443801861</c:v>
+                  <c:v>0.53316685842542</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65748701531788556</c:v>
+                  <c:v>0.55367327605716687</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.68183838625558502</c:v>
+                  <c:v>0.57417969368891386</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.70618975719328447</c:v>
+                  <c:v>0.59468611132066074</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.73054112813098404</c:v>
+                  <c:v>0.61519252895240761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,94 +1742,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.5238984591208002E-2</c:v>
+                  <c:v>1.3410306440263043E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0477969182416003E-2</c:v>
+                  <c:v>2.6820612880526087E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.571695377362401E-2</c:v>
+                  <c:v>4.0230919320789128E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0955938364832006E-2</c:v>
+                  <c:v>5.3641225761052173E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6194922956040009E-2</c:v>
+                  <c:v>6.7051532201315212E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1433907547248019E-2</c:v>
+                  <c:v>8.0461838641578257E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10667289213845602</c:v>
+                  <c:v>9.3872145081841302E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12191187672966401</c:v>
+                  <c:v>0.10728245152210435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13715086132087201</c:v>
+                  <c:v>0.12069275796236739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15238984591208002</c:v>
+                  <c:v>0.13410306440263042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16762883050328803</c:v>
+                  <c:v>0.14751337084289348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18286781509449604</c:v>
+                  <c:v>0.16092367728315651</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19810679968570402</c:v>
+                  <c:v>0.17433398372341957</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21334578427691203</c:v>
+                  <c:v>0.1877442901636826</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22858476886812004</c:v>
+                  <c:v>0.20115459660394566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24382375345932802</c:v>
+                  <c:v>0.21456490304420869</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25906273805053603</c:v>
+                  <c:v>0.22797520948447172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27430172264174402</c:v>
+                  <c:v>0.24138551592473478</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28954070723295205</c:v>
+                  <c:v>0.25479582236499781</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30477969182416004</c:v>
+                  <c:v>0.26820612880526085</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.32001867641536802</c:v>
+                  <c:v>0.28161643524552393</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.29502674168578696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30843704812605</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32184735456631303</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.33525766100657606</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.35049664559778404</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.36573563018899208</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.38097461478020006</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.39621359937140804</c:v>
+                  <c:v>0.34866796744683914</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.41145258396261608</c:v>
+                  <c:v>0.36207827388710218</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42669156855382406</c:v>
+                  <c:v>0.37548858032736521</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44193055314503205</c:v>
+                  <c:v>0.38889888676762824</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45716953773624008</c:v>
+                  <c:v>0.40230919320789132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,94 +1977,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.7645140052977688E-2</c:v>
+                  <c:v>1.5238984591208002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5290280105955377E-2</c:v>
+                  <c:v>3.0477969182416003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2935420158933065E-2</c:v>
+                  <c:v>4.571695377362401E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0580560211910753E-2</c:v>
+                  <c:v>6.0955938364832006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8225700264888435E-2</c:v>
+                  <c:v>7.6194922956040009E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10587084031786613</c:v>
+                  <c:v>9.1433907547248019E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12351598037084381</c:v>
+                  <c:v>0.10667289213845602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14116112042382151</c:v>
+                  <c:v>0.12191187672966401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15880626047679919</c:v>
+                  <c:v>0.13715086132087201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17645140052977687</c:v>
+                  <c:v>0.15238984591208002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19409654058275455</c:v>
+                  <c:v>0.16762883050328803</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21174168063573226</c:v>
+                  <c:v>0.18286781509449604</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22938682068870994</c:v>
+                  <c:v>0.19810679968570402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24703196074168762</c:v>
+                  <c:v>0.21334578427691203</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26467710079466533</c:v>
+                  <c:v>0.22858476886812004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28232224084764301</c:v>
+                  <c:v>0.24382375345932802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29996738090062069</c:v>
+                  <c:v>0.25906273805053603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.31761252095359838</c:v>
+                  <c:v>0.27430172264174402</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.28954070723295205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30477969182416004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32001867641536802</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.33525766100657606</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.35290280105955374</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.37054794111253142</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3881930811655091</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.40583822121848678</c:v>
+                  <c:v>0.35049664559778404</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42348336127146452</c:v>
+                  <c:v>0.36573563018899208</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4411285013244422</c:v>
+                  <c:v>0.38097461478020006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.45877364137741988</c:v>
+                  <c:v>0.39621359937140804</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.47641878143039756</c:v>
+                  <c:v>0.41145258396261608</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.49406392148337525</c:v>
+                  <c:v>0.42669156855382406</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.51170906153635298</c:v>
+                  <c:v>0.44193055314503205</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.52935420158933066</c:v>
+                  <c:v>0.45716953773624008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,94 +2212,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.0953603812911004E-2</c:v>
+                  <c:v>1.7645140052977688E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1907207625822007E-2</c:v>
+                  <c:v>3.5290280105955377E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2860811438733011E-2</c:v>
+                  <c:v>5.2935420158933065E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3814415251644014E-2</c:v>
+                  <c:v>7.0580560211910753E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10476801906455502</c:v>
+                  <c:v>8.8225700264888435E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12572162287746602</c:v>
+                  <c:v>0.10587084031786613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14667522669037703</c:v>
+                  <c:v>0.12351598037084381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16762883050328803</c:v>
+                  <c:v>0.14116112042382151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18858243431619903</c:v>
+                  <c:v>0.15880626047679919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20953603812911004</c:v>
+                  <c:v>0.17645140052977687</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23048964194202104</c:v>
+                  <c:v>0.19409654058275455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25144324575493204</c:v>
+                  <c:v>0.21174168063573226</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27239684956784305</c:v>
+                  <c:v>0.22938682068870994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29335045338075405</c:v>
+                  <c:v>0.24703196074168762</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31430405719366505</c:v>
+                  <c:v>0.26467710079466533</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.28232224084764301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29996738090062069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31761252095359838</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.33525766100657606</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.35621126481948706</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.37716486863239806</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.39811847244530907</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.41907207625822007</c:v>
+                  <c:v>0.35290280105955374</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.44002568007113108</c:v>
+                  <c:v>0.37054794111253142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.46097928388404208</c:v>
+                  <c:v>0.3881930811655091</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.48193288769695308</c:v>
+                  <c:v>0.40583822121848678</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.50288649150986409</c:v>
+                  <c:v>0.42348336127146452</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.52384009532277509</c:v>
+                  <c:v>0.4411285013244422</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.54479369913568609</c:v>
+                  <c:v>0.45877364137741988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5657473029485971</c:v>
+                  <c:v>0.47641878143039756</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5867009067615081</c:v>
+                  <c:v>0.49406392148337525</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6076545105744191</c:v>
+                  <c:v>0.51170906153635298</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.62860811438733011</c:v>
+                  <c:v>0.52935420158933066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2789,94 +2789,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.7066915169091536E-2</c:v>
+                  <c:v>2.3818885348800552E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4133830338183073E-2</c:v>
+                  <c:v>4.7637770697601105E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1200745507274602E-2</c:v>
+                  <c:v>7.1456656046401654E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10826766067636615</c:v>
+                  <c:v>9.527554139520221E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13533457584545769</c:v>
+                  <c:v>0.11909442674400277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1624014910145492</c:v>
+                  <c:v>0.14291331209280331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18946840618364075</c:v>
+                  <c:v>0.16673219744160386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21653532135273229</c:v>
+                  <c:v>0.19055108279040442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24360223652182383</c:v>
+                  <c:v>0.21436996813920497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27066915169091538</c:v>
+                  <c:v>0.23818885348800553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29773606686000692</c:v>
+                  <c:v>0.26200773883680606</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32480298202909841</c:v>
+                  <c:v>0.28582662418560661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35186989719818995</c:v>
+                  <c:v>0.30964550953440717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37893681236728149</c:v>
+                  <c:v>0.33346439488320773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40600372753637304</c:v>
+                  <c:v>0.35728328023200828</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43307064270546458</c:v>
+                  <c:v>0.38110216558080884</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46013755787455612</c:v>
+                  <c:v>0.40492105092960939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48720447304364767</c:v>
+                  <c:v>0.42873993627840995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51427138821273921</c:v>
+                  <c:v>0.45255882162721051</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.54133830338183075</c:v>
+                  <c:v>0.47637770697601106</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5684052185509223</c:v>
+                  <c:v>0.50019659232481162</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.52401547767361212</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54783436302241273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57165324837121323</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.59547213372001384</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.62253904888910538</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.64960596405819682</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.67667287922728836</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7037397943963799</c:v>
+                  <c:v>0.61929101906881434</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.73080670956547145</c:v>
+                  <c:v>0.64310990441761495</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.75787362473456299</c:v>
+                  <c:v>0.66692878976641545</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78494053990365453</c:v>
+                  <c:v>0.69074767511521606</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.81200745507274608</c:v>
+                  <c:v>0.71456656046401656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,94 +3024,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.1340638616842838E-2</c:v>
+                  <c:v>2.7066915169091536E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2681277233685675E-2</c:v>
+                  <c:v>5.4133830338183073E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4021915850528506E-2</c:v>
+                  <c:v>8.1200745507274602E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12536255446737135</c:v>
+                  <c:v>0.10826766067636615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15670319308421418</c:v>
+                  <c:v>0.13533457584545769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18804383170105701</c:v>
+                  <c:v>0.1624014910145492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21938447031789984</c:v>
+                  <c:v>0.18946840618364075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2507251089347427</c:v>
+                  <c:v>0.21653532135273229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28206574755158553</c:v>
+                  <c:v>0.24360223652182383</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31340638616842836</c:v>
+                  <c:v>0.27066915169091538</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34474702478527119</c:v>
+                  <c:v>0.29773606686000692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37608766340211403</c:v>
+                  <c:v>0.32480298202909841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40742830201895686</c:v>
+                  <c:v>0.35186989719818995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.43876894063579969</c:v>
+                  <c:v>0.37893681236728149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47010957925264252</c:v>
+                  <c:v>0.40600372753637304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5014502178694854</c:v>
+                  <c:v>0.43307064270546458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53279085648632818</c:v>
+                  <c:v>0.46013755787455612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56413149510317107</c:v>
+                  <c:v>0.48720447304364767</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.51427138821273921</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54133830338183075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5684052185509223</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.59547213372001384</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.62681277233685673</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.6581534109536995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.68949404957054239</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72083468818738516</c:v>
+                  <c:v>0.62253904888910538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75217532680422805</c:v>
+                  <c:v>0.64960596405819682</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.78351596542107083</c:v>
+                  <c:v>0.67667287922728836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.81485660403791371</c:v>
+                  <c:v>0.7037397943963799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8461972426547566</c:v>
+                  <c:v>0.73080670956547145</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.87753788127159937</c:v>
+                  <c:v>0.75787362473456299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90887851988844226</c:v>
+                  <c:v>0.78494053990365453</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94021915850528504</c:v>
+                  <c:v>0.81200745507274608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3259,94 +3259,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.7217008357500858E-2</c:v>
+                  <c:v>3.1340638616842838E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4434016715001716E-2</c:v>
+                  <c:v>6.2681277233685675E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11165102507250257</c:v>
+                  <c:v>9.4021915850528506E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14886803343000343</c:v>
+                  <c:v>0.12536255446737135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18608504178750429</c:v>
+                  <c:v>0.15670319308421418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22330205014500515</c:v>
+                  <c:v>0.18804383170105701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26051905850250601</c:v>
+                  <c:v>0.21938447031789984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29773606686000686</c:v>
+                  <c:v>0.2507251089347427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33495307521750772</c:v>
+                  <c:v>0.28206574755158553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37217008357500858</c:v>
+                  <c:v>0.31340638616842836</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40938709193250944</c:v>
+                  <c:v>0.34474702478527119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4466041002900103</c:v>
+                  <c:v>0.37608766340211403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48382110864751116</c:v>
+                  <c:v>0.40742830201895686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52103811700501201</c:v>
+                  <c:v>0.43876894063579969</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55825512536251287</c:v>
+                  <c:v>0.47010957925264252</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59547213372001373</c:v>
+                  <c:v>0.5014502178694854</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.63268914207751459</c:v>
+                  <c:v>0.53279085648632818</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.66990615043501545</c:v>
+                  <c:v>0.56413149510317107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7071231587925163</c:v>
+                  <c:v>0.59547213372001384</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.74434016715001716</c:v>
+                  <c:v>0.62681277233685673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.78155717550751802</c:v>
+                  <c:v>0.6581534109536995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.81877418386501888</c:v>
+                  <c:v>0.68949404957054239</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.85599119222251974</c:v>
+                  <c:v>0.72083468818738516</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.89320820058002059</c:v>
+                  <c:v>0.75217532680422805</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93042520893752145</c:v>
+                  <c:v>0.78351596542107083</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.96764221729502231</c:v>
+                  <c:v>0.81485660403791371</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0048592256525233</c:v>
+                  <c:v>0.8461972426547566</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.042076234010024</c:v>
+                  <c:v>0.87753788127159937</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.079293242367525</c:v>
+                  <c:v>0.90887851988844226</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1165102507250257</c:v>
+                  <c:v>0.94021915850528504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,94 +3835,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.3290245889720534E-2</c:v>
+                  <c:v>2.0495416382954074E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6580491779441069E-2</c:v>
+                  <c:v>4.0990832765908147E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9870737669161603E-2</c:v>
+                  <c:v>6.1486249148862221E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3160983558882138E-2</c:v>
+                  <c:v>8.1981665531816295E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11645122944860267</c:v>
+                  <c:v>0.10247708191477037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13974147533832321</c:v>
+                  <c:v>0.12297249829772444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16303172122804374</c:v>
+                  <c:v>0.14346791468067852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18632196711776428</c:v>
+                  <c:v>0.16396333106363259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20961221300748481</c:v>
+                  <c:v>0.18445874744658666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23290245889720534</c:v>
+                  <c:v>0.20495416382954074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25619270478692585</c:v>
+                  <c:v>0.22544958021249481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27948295067664641</c:v>
+                  <c:v>0.24594499659544888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30277319656636692</c:v>
+                  <c:v>0.26644041297840293</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32606344245608748</c:v>
+                  <c:v>0.28693582936135703</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.34935368834580799</c:v>
+                  <c:v>0.30743124574431108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.37264393423552855</c:v>
+                  <c:v>0.32792666212726518</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39593418012524906</c:v>
+                  <c:v>0.34842207851021922</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41922442601496962</c:v>
+                  <c:v>0.36891749489317333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44251467190469013</c:v>
+                  <c:v>0.38941291127612737</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.46580491779441069</c:v>
+                  <c:v>0.40990832765908147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4890951636841312</c:v>
+                  <c:v>0.43040374404203552</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5123854095738517</c:v>
+                  <c:v>0.45089916042498962</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.53567565546357232</c:v>
+                  <c:v>0.47139457680794367</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.55896590135329283</c:v>
+                  <c:v>0.49188999319089777</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.58225614724301333</c:v>
+                  <c:v>0.51238540957385181</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.60554639313273384</c:v>
+                  <c:v>0.53288082595680586</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.62883663902245446</c:v>
+                  <c:v>0.55337624233976002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65212688491217496</c:v>
+                  <c:v>0.57387165872271406</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.67541713080189547</c:v>
+                  <c:v>0.59436707510566811</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.69870737669161598</c:v>
+                  <c:v>0.61486249148862215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4070,94 +4070,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.6967653135465883E-2</c:v>
+                  <c:v>2.3290245889720534E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3935306270931765E-2</c:v>
+                  <c:v>4.6580491779441069E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0902959406397648E-2</c:v>
+                  <c:v>6.9870737669161603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10787061254186353</c:v>
+                  <c:v>9.3160983558882138E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13483826567732943</c:v>
+                  <c:v>0.11645122944860267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1618059188127953</c:v>
+                  <c:v>0.13974147533832321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18877357194826119</c:v>
+                  <c:v>0.16303172122804374</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21574122508372706</c:v>
+                  <c:v>0.18632196711776428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24270887821919296</c:v>
+                  <c:v>0.20961221300748481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26967653135465885</c:v>
+                  <c:v>0.23290245889720534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2966441844901247</c:v>
+                  <c:v>0.25619270478692585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32361183762559059</c:v>
+                  <c:v>0.27948295067664641</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35057949076105649</c:v>
+                  <c:v>0.30277319656636692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37754714389652239</c:v>
+                  <c:v>0.32606344245608748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40451479703198823</c:v>
+                  <c:v>0.34935368834580799</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43148245016745412</c:v>
+                  <c:v>0.37264393423552855</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.45845010330292002</c:v>
+                  <c:v>0.39593418012524906</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48541775643838592</c:v>
+                  <c:v>0.41922442601496962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51238540957385181</c:v>
+                  <c:v>0.44251467190469013</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53935306270931771</c:v>
+                  <c:v>0.46580491779441069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56632071584478361</c:v>
+                  <c:v>0.4890951636841312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.59328836898024939</c:v>
+                  <c:v>0.5123854095738517</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62025602211571529</c:v>
+                  <c:v>0.53567565546357232</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64722367525118119</c:v>
+                  <c:v>0.55896590135329283</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.67419132838664708</c:v>
+                  <c:v>0.58225614724301333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.70115898152211298</c:v>
+                  <c:v>0.60554639313273384</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72812663465757888</c:v>
+                  <c:v>0.62883663902245446</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.75509428779304477</c:v>
+                  <c:v>0.65212688491217496</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78206194092851067</c:v>
+                  <c:v>0.67541713080189547</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80902959406397645</c:v>
+                  <c:v>0.69870737669161598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,94 +4305,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.2024088098365738E-2</c:v>
+                  <c:v>2.6967653135465883E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4048176196731477E-2</c:v>
+                  <c:v>5.3935306270931765E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6072264295097201E-2</c:v>
+                  <c:v>8.0902959406397648E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12809635239346295</c:v>
+                  <c:v>0.10787061254186353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16012044049182866</c:v>
+                  <c:v>0.13483826567732943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1921445285901944</c:v>
+                  <c:v>0.1618059188127953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22416861668856014</c:v>
+                  <c:v>0.18877357194826119</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25619270478692591</c:v>
+                  <c:v>0.21574122508372706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28821679288529162</c:v>
+                  <c:v>0.24270887821919296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32024088098365733</c:v>
+                  <c:v>0.26967653135465885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35226496908202309</c:v>
+                  <c:v>0.2966441844901247</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3842890571803888</c:v>
+                  <c:v>0.32361183762559059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41631314527875457</c:v>
+                  <c:v>0.35057949076105649</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44833723337712028</c:v>
+                  <c:v>0.37754714389652239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48036132147548605</c:v>
+                  <c:v>0.40451479703198823</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.43148245016745412</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45845010330292002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48541775643838592</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.51238540957385181</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.54440949767221747</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.57643358577058323</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.608457673868949</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64048176196731466</c:v>
+                  <c:v>0.53935306270931771</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67250585006568042</c:v>
+                  <c:v>0.56632071584478361</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.70452993816404619</c:v>
+                  <c:v>0.59328836898024939</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.73655402626241195</c:v>
+                  <c:v>0.62025602211571529</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76857811436077761</c:v>
+                  <c:v>0.64722367525118119</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.80060220245914338</c:v>
+                  <c:v>0.67419132838664708</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.83262629055750914</c:v>
+                  <c:v>0.70115898152211298</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8646503786558748</c:v>
+                  <c:v>0.72812663465757888</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.89667446675424056</c:v>
+                  <c:v>0.75509428779304477</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.92869855485260633</c:v>
+                  <c:v>0.78206194092851067</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96072264295097209</c:v>
+                  <c:v>0.80902959406397645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8054,16 +8054,16 @@
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
         <v>11</v>
       </c>
@@ -8085,15 +8085,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C6" s="28">
+      <c r="D6" s="28">
         <v>1.9</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -8105,32 +8105,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79673526-97EE-40AD-99B5-97FBAABDA02B}">
   <dimension ref="D2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:N34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D5" s="19">
         <v>6000</v>
       </c>
@@ -8267,15 +8267,15 @@
       </c>
       <c r="L5" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N5" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O5" s="28">
         <v>37.5</v>
@@ -8285,24 +8285,24 @@
       </c>
       <c r="Q5" s="14">
         <f>(O5*P5)/(K5*L5*G5)</f>
-        <v>1.771008795469052E-2</v>
+        <v>1.5584877400127659E-2</v>
       </c>
       <c r="R5" s="19">
         <v>5</v>
       </c>
       <c r="S5" s="14">
         <f>(O5*R5)/(K5*M5*G5)</f>
-        <v>2.0506417631746921E-2</v>
+        <v>1.771008795469052E-2</v>
       </c>
       <c r="T5" s="19">
         <v>5</v>
       </c>
       <c r="U5" s="14">
         <f>(O5*T5)/(K5*N5*G5)</f>
-        <v>2.4351370937699467E-2</v>
+        <v>2.0506417631746921E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D6" s="19">
         <v>6000</v>
       </c>
@@ -8331,15 +8331,15 @@
       </c>
       <c r="L6" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M6" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N6" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O6" s="28">
         <v>37.5</v>
@@ -8349,24 +8349,24 @@
       </c>
       <c r="Q6" s="14">
         <f t="shared" ref="Q6:Q34" si="2">(O6*P6)/(K6*L6*G6)</f>
-        <v>3.5420175909381041E-2</v>
+        <v>3.1169754800255318E-2</v>
       </c>
       <c r="R6" s="20">
         <v>10</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" ref="S6:S34" si="3">(O6*R6)/(K6*M6*G6)</f>
-        <v>4.1012835263493842E-2</v>
+        <v>3.5420175909381041E-2</v>
       </c>
       <c r="T6" s="20">
         <v>10</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" ref="U6:U34" si="4">(O6*T6)/(K6*N6*G6)</f>
-        <v>4.8702741875398935E-2</v>
+        <v>4.1012835263493842E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" s="19">
         <v>6000</v>
       </c>
@@ -8395,15 +8395,15 @@
       </c>
       <c r="L7" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M7" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N7" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O7" s="28">
         <v>37.5</v>
@@ -8413,24 +8413,24 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="2"/>
-        <v>5.3130263864071561E-2</v>
+        <v>4.6754632200382978E-2</v>
       </c>
       <c r="R7" s="20">
         <v>15</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="3"/>
-        <v>6.1519252895240767E-2</v>
+        <v>5.3130263864071561E-2</v>
       </c>
       <c r="T7" s="20">
         <v>15</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="4"/>
-        <v>7.3054112813098399E-2</v>
+        <v>6.1519252895240767E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>6000</v>
       </c>
@@ -8459,15 +8459,15 @@
       </c>
       <c r="L8" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M8" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N8" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="28">
         <v>37.5</v>
@@ -8477,24 +8477,24 @@
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="2"/>
-        <v>7.0840351818762082E-2</v>
+        <v>6.2339509600510636E-2</v>
       </c>
       <c r="R8" s="20">
         <v>20</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="3"/>
-        <v>8.2025670526987685E-2</v>
+        <v>7.0840351818762082E-2</v>
       </c>
       <c r="T8" s="20">
         <v>20</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="4"/>
-        <v>9.7405483750797869E-2</v>
+        <v>8.2025670526987685E-2</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="19">
         <v>6000</v>
       </c>
@@ -8523,15 +8523,15 @@
       </c>
       <c r="L9" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M9" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N9" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O9" s="28">
         <v>37.5</v>
@@ -8541,24 +8541,24 @@
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="2"/>
-        <v>8.8550439773452602E-2</v>
+        <v>7.7924387000638293E-2</v>
       </c>
       <c r="R9" s="20">
         <v>25</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="3"/>
-        <v>0.10253208815873462</v>
+        <v>8.8550439773452602E-2</v>
       </c>
       <c r="T9" s="20">
         <v>25</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="4"/>
-        <v>0.12175685468849733</v>
+        <v>0.10253208815873462</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" s="19">
         <v>6000</v>
       </c>
@@ -8587,15 +8587,15 @@
       </c>
       <c r="L10" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M10" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N10" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O10" s="28">
         <v>37.5</v>
@@ -8605,24 +8605,24 @@
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="2"/>
-        <v>0.10626052772814312</v>
+        <v>9.3509264400765957E-2</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="3"/>
-        <v>0.12303850579048153</v>
+        <v>0.10626052772814312</v>
       </c>
       <c r="T10" s="20">
         <v>30</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="4"/>
-        <v>0.1461082256261968</v>
+        <v>0.12303850579048153</v>
       </c>
     </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" s="19">
         <v>6000</v>
       </c>
@@ -8651,15 +8651,15 @@
       </c>
       <c r="L11" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M11" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N11" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O11" s="28">
         <v>37.5</v>
@@ -8669,24 +8669,24 @@
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
-        <v>0.12397061568283364</v>
+        <v>0.10909414180089362</v>
       </c>
       <c r="R11" s="20">
         <v>35</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="3"/>
-        <v>0.14354492342222847</v>
+        <v>0.12397061568283364</v>
       </c>
       <c r="T11" s="20">
         <v>35</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="4"/>
-        <v>0.17045959656389625</v>
+        <v>0.14354492342222847</v>
       </c>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="19">
         <v>6000</v>
       </c>
@@ -8715,15 +8715,15 @@
       </c>
       <c r="L12" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M12" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N12" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O12" s="28">
         <v>37.5</v>
@@ -8733,24 +8733,24 @@
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
-        <v>0.14168070363752416</v>
+        <v>0.12467901920102127</v>
       </c>
       <c r="R12" s="20">
         <v>40</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="3"/>
-        <v>0.16405134105397537</v>
+        <v>0.14168070363752416</v>
       </c>
       <c r="T12" s="20">
         <v>40</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="4"/>
-        <v>0.19481096750159574</v>
+        <v>0.16405134105397537</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="19">
         <v>6000</v>
       </c>
@@ -8779,15 +8779,15 @@
       </c>
       <c r="L13" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M13" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N13" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O13" s="28">
         <v>37.5</v>
@@ -8797,24 +8797,24 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>0.1593907915922147</v>
+        <v>0.14026389660114894</v>
       </c>
       <c r="R13" s="20">
         <v>45</v>
       </c>
       <c r="S13" s="14">
         <f>(O13*R13)/(K13*M13*G13)</f>
-        <v>0.1845577586857223</v>
+        <v>0.1593907915922147</v>
       </c>
       <c r="T13" s="20">
         <v>45</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>0.2191623384392952</v>
+        <v>0.1845577586857223</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <v>6000</v>
       </c>
@@ -8843,15 +8843,15 @@
       </c>
       <c r="L14" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M14" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N14" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O14" s="28">
         <v>37.5</v>
@@ -8861,24 +8861,24 @@
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>0.1771008795469052</v>
+        <v>0.15584877400127659</v>
       </c>
       <c r="R14" s="20">
         <v>50</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="3"/>
-        <v>0.20506417631746923</v>
+        <v>0.1771008795469052</v>
       </c>
       <c r="T14" s="20">
         <v>50</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>0.24351370937699465</v>
+        <v>0.20506417631746923</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>6000</v>
       </c>
@@ -8907,15 +8907,15 @@
       </c>
       <c r="L15" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M15" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N15" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O15" s="28">
         <v>37.5</v>
@@ -8925,24 +8925,24 @@
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>0.19481096750159574</v>
+        <v>0.17143365140140426</v>
       </c>
       <c r="R15" s="20">
         <v>55</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="3"/>
-        <v>0.22557059394921614</v>
+        <v>0.19481096750159574</v>
       </c>
       <c r="T15" s="20">
         <v>55</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="4"/>
-        <v>0.26786508031469414</v>
+        <v>0.22557059394921614</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>6000</v>
       </c>
@@ -8971,15 +8971,15 @@
       </c>
       <c r="L16" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M16" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N16" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O16" s="28">
         <v>37.5</v>
@@ -8989,24 +8989,24 @@
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>0.21252105545628625</v>
+        <v>0.18701852880153191</v>
       </c>
       <c r="R16" s="20">
         <v>60</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="3"/>
-        <v>0.24607701158096307</v>
+        <v>0.21252105545628625</v>
       </c>
       <c r="T16" s="20">
         <v>60</v>
       </c>
       <c r="U16" s="14">
         <f t="shared" si="4"/>
-        <v>0.29221645125239359</v>
+        <v>0.24607701158096307</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>6000</v>
       </c>
@@ -9035,15 +9035,15 @@
       </c>
       <c r="L17" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M17" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N17" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O17" s="28">
         <v>37.5</v>
@@ -9053,24 +9053,24 @@
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>0.23023114341097678</v>
+        <v>0.20260340620165956</v>
       </c>
       <c r="R17" s="20">
         <v>65</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="3"/>
-        <v>0.26658342921271</v>
+        <v>0.23023114341097678</v>
       </c>
       <c r="T17" s="20">
         <v>65</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" si="4"/>
-        <v>0.31656782219009305</v>
+        <v>0.26658342921271</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>6000</v>
       </c>
@@ -9099,15 +9099,15 @@
       </c>
       <c r="L18" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M18" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N18" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O18" s="28">
         <v>37.5</v>
@@ -9117,24 +9117,24 @@
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>0.24794123136566729</v>
+        <v>0.21818828360178724</v>
       </c>
       <c r="R18" s="20">
         <v>70</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="3"/>
-        <v>0.28708984684445693</v>
+        <v>0.24794123136566729</v>
       </c>
       <c r="T18" s="20">
         <v>70</v>
       </c>
       <c r="U18" s="14">
         <f t="shared" si="4"/>
-        <v>0.34091919312779251</v>
+        <v>0.28708984684445693</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>6000</v>
       </c>
@@ -9163,15 +9163,15 @@
       </c>
       <c r="L19" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M19" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N19" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O19" s="28">
         <v>37.5</v>
@@ -9181,24 +9181,24 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>0.26565131932035779</v>
+        <v>0.23377316100191489</v>
       </c>
       <c r="R19" s="20">
         <v>75</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="3"/>
-        <v>0.30759626447620381</v>
+        <v>0.26565131932035779</v>
       </c>
       <c r="T19" s="20">
         <v>75</v>
       </c>
       <c r="U19" s="14">
         <f t="shared" si="4"/>
-        <v>0.36527056406549202</v>
+        <v>0.30759626447620381</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>6000</v>
       </c>
@@ -9227,15 +9227,15 @@
       </c>
       <c r="L20" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M20" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N20" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O20" s="28">
         <v>37.5</v>
@@ -9245,24 +9245,24 @@
       </c>
       <c r="Q20" s="14">
         <f t="shared" si="2"/>
-        <v>0.28336140727504833</v>
+        <v>0.24935803840204254</v>
       </c>
       <c r="R20" s="20">
         <v>80</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="3"/>
-        <v>0.32810268210795074</v>
+        <v>0.28336140727504833</v>
       </c>
       <c r="T20" s="20">
         <v>80</v>
       </c>
       <c r="U20" s="14">
         <f t="shared" si="4"/>
-        <v>0.38962193500319148</v>
+        <v>0.32810268210795074</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>6000</v>
       </c>
@@ -9291,15 +9291,15 @@
       </c>
       <c r="L21" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M21" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N21" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O21" s="28">
         <v>37.5</v>
@@ -9309,24 +9309,24 @@
       </c>
       <c r="Q21" s="14">
         <f t="shared" si="2"/>
-        <v>0.30107149522973886</v>
+        <v>0.26494291580217022</v>
       </c>
       <c r="R21" s="20">
         <v>85</v>
       </c>
       <c r="S21" s="14">
         <f t="shared" si="3"/>
-        <v>0.34860909973969767</v>
+        <v>0.30107149522973886</v>
       </c>
       <c r="T21" s="20">
         <v>85</v>
       </c>
       <c r="U21" s="14">
         <f t="shared" si="4"/>
-        <v>0.41397330594089093</v>
+        <v>0.34860909973969767</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>6000</v>
       </c>
@@ -9355,15 +9355,15 @@
       </c>
       <c r="L22" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M22" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N22" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O22" s="28">
         <v>37.5</v>
@@ -9373,24 +9373,24 @@
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="2"/>
-        <v>0.3187815831844294</v>
+        <v>0.28052779320229787</v>
       </c>
       <c r="R22" s="20">
         <v>90</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="3"/>
-        <v>0.3691155173714446</v>
+        <v>0.3187815831844294</v>
       </c>
       <c r="T22" s="20">
         <v>90</v>
       </c>
       <c r="U22" s="14">
         <f t="shared" si="4"/>
-        <v>0.43832467687859039</v>
+        <v>0.3691155173714446</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>6000</v>
       </c>
@@ -9419,15 +9419,15 @@
       </c>
       <c r="L23" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M23" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N23" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O23" s="28">
         <v>37.5</v>
@@ -9437,24 +9437,24 @@
       </c>
       <c r="Q23" s="14">
         <f t="shared" si="2"/>
-        <v>0.33649167113911987</v>
+        <v>0.29611267060242552</v>
       </c>
       <c r="R23" s="20">
         <v>95</v>
       </c>
       <c r="S23" s="14">
         <f t="shared" si="3"/>
-        <v>0.38962193500319153</v>
+        <v>0.33649167113911987</v>
       </c>
       <c r="T23" s="20">
         <v>95</v>
       </c>
       <c r="U23" s="14">
         <f t="shared" si="4"/>
-        <v>0.46267604781628985</v>
+        <v>0.38962193500319153</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>6000</v>
       </c>
@@ -9483,15 +9483,15 @@
       </c>
       <c r="L24" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M24" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N24" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O24" s="28">
         <v>37.5</v>
@@ -9501,24 +9501,24 @@
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
-        <v>0.35420175909381041</v>
+        <v>0.31169754800255317</v>
       </c>
       <c r="R24" s="20">
         <v>100</v>
       </c>
       <c r="S24" s="14">
         <f t="shared" si="3"/>
-        <v>0.41012835263493846</v>
+        <v>0.35420175909381041</v>
       </c>
       <c r="T24" s="20">
         <v>100</v>
       </c>
       <c r="U24" s="14">
         <f t="shared" si="4"/>
-        <v>0.48702741875398931</v>
+        <v>0.41012835263493846</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>6000</v>
       </c>
@@ -9547,15 +9547,15 @@
       </c>
       <c r="L25" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M25" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N25" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O25" s="28">
         <v>37.5</v>
@@ -9565,24 +9565,24 @@
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="2"/>
-        <v>0.37191184704850094</v>
+        <v>0.32728242540268082</v>
       </c>
       <c r="R25" s="20">
         <v>105</v>
       </c>
       <c r="S25" s="14">
         <f t="shared" si="3"/>
-        <v>0.43063477026668534</v>
+        <v>0.37191184704850094</v>
       </c>
       <c r="T25" s="20">
         <v>105</v>
       </c>
       <c r="U25" s="14">
         <f t="shared" si="4"/>
-        <v>0.51137878969168882</v>
+        <v>0.43063477026668534</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>6000</v>
       </c>
@@ -9611,15 +9611,15 @@
       </c>
       <c r="L26" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M26" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N26" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O26" s="28">
         <v>37.5</v>
@@ -9629,24 +9629,24 @@
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
-        <v>0.38962193500319148</v>
+        <v>0.34286730280280853</v>
       </c>
       <c r="R26" s="20">
         <v>110</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="3"/>
-        <v>0.45114118789843227</v>
+        <v>0.38962193500319148</v>
       </c>
       <c r="T26" s="20">
         <v>110</v>
       </c>
       <c r="U26" s="14">
         <f t="shared" si="4"/>
-        <v>0.53573016062938827</v>
+        <v>0.45114118789843227</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="19">
         <v>6000</v>
       </c>
@@ -9675,15 +9675,15 @@
       </c>
       <c r="L27" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N27" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O27" s="28">
         <v>37.5</v>
@@ -9693,24 +9693,24 @@
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="2"/>
-        <v>0.40733202295788201</v>
+        <v>0.35845218020293618</v>
       </c>
       <c r="R27" s="20">
         <v>115</v>
       </c>
       <c r="S27" s="14">
         <f t="shared" si="3"/>
-        <v>0.4716476055301792</v>
+        <v>0.40733202295788201</v>
       </c>
       <c r="T27" s="20">
         <v>115</v>
       </c>
       <c r="U27" s="14">
         <f t="shared" si="4"/>
-        <v>0.56008153156708773</v>
+        <v>0.4716476055301792</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="19">
         <v>6000</v>
       </c>
@@ -9739,15 +9739,15 @@
       </c>
       <c r="L28" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M28" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N28" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O28" s="28">
         <v>37.5</v>
@@ -9757,24 +9757,24 @@
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="2"/>
-        <v>0.42504211091257249</v>
+        <v>0.37403705760306383</v>
       </c>
       <c r="R28" s="20">
         <v>120</v>
       </c>
       <c r="S28" s="14">
         <f t="shared" si="3"/>
-        <v>0.49215402316192614</v>
+        <v>0.42504211091257249</v>
       </c>
       <c r="T28" s="20">
         <v>120</v>
       </c>
       <c r="U28" s="14">
         <f t="shared" si="4"/>
-        <v>0.58443290250478719</v>
+        <v>0.49215402316192614</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="19">
         <v>6000</v>
       </c>
@@ -9803,15 +9803,15 @@
       </c>
       <c r="L29" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M29" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N29" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O29" s="28">
         <v>37.5</v>
@@ -9821,24 +9821,24 @@
       </c>
       <c r="Q29" s="14">
         <f t="shared" si="2"/>
-        <v>0.44275219886726302</v>
+        <v>0.38962193500319148</v>
       </c>
       <c r="R29" s="20">
         <v>125</v>
       </c>
       <c r="S29" s="14">
         <f t="shared" si="3"/>
-        <v>0.51266044079367301</v>
+        <v>0.44275219886726302</v>
       </c>
       <c r="T29" s="20">
         <v>125</v>
       </c>
       <c r="U29" s="14">
         <f t="shared" si="4"/>
-        <v>0.60878427344248665</v>
+        <v>0.51266044079367301</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>6000</v>
       </c>
@@ -9867,15 +9867,15 @@
       </c>
       <c r="L30" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M30" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N30" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O30" s="28">
         <v>37.5</v>
@@ -9885,24 +9885,24 @@
       </c>
       <c r="Q30" s="14">
         <f t="shared" si="2"/>
-        <v>0.46046228682195356</v>
+        <v>0.40520681240331913</v>
       </c>
       <c r="R30" s="20">
         <v>130</v>
       </c>
       <c r="S30" s="14">
         <f t="shared" si="3"/>
-        <v>0.53316685842542</v>
+        <v>0.46046228682195356</v>
       </c>
       <c r="T30" s="20">
         <v>130</v>
       </c>
       <c r="U30" s="14">
         <f t="shared" si="4"/>
-        <v>0.6331356443801861</v>
+        <v>0.53316685842542</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="19">
         <v>6000</v>
       </c>
@@ -9931,15 +9931,15 @@
       </c>
       <c r="L31" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M31" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N31" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O31" s="28">
         <v>37.5</v>
@@ -9949,24 +9949,24 @@
       </c>
       <c r="Q31" s="14">
         <f t="shared" si="2"/>
-        <v>0.47817237477664409</v>
+        <v>0.42079168980344678</v>
       </c>
       <c r="R31" s="20">
         <v>135</v>
       </c>
       <c r="S31" s="14">
         <f t="shared" si="3"/>
-        <v>0.55367327605716687</v>
+        <v>0.47817237477664409</v>
       </c>
       <c r="T31" s="20">
         <v>135</v>
       </c>
       <c r="U31" s="14">
         <f t="shared" si="4"/>
-        <v>0.65748701531788556</v>
+        <v>0.55367327605716687</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="19">
         <v>6000</v>
       </c>
@@ -9995,15 +9995,15 @@
       </c>
       <c r="L32" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M32" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N32" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O32" s="28">
         <v>37.5</v>
@@ -10013,24 +10013,24 @@
       </c>
       <c r="Q32" s="14">
         <f t="shared" si="2"/>
-        <v>0.49588246273133457</v>
+        <v>0.43637656720357448</v>
       </c>
       <c r="R32" s="20">
         <v>140</v>
       </c>
       <c r="S32" s="14">
         <f t="shared" si="3"/>
-        <v>0.57417969368891386</v>
+        <v>0.49588246273133457</v>
       </c>
       <c r="T32" s="20">
         <v>140</v>
       </c>
       <c r="U32" s="14">
         <f t="shared" si="4"/>
-        <v>0.68183838625558502</v>
+        <v>0.57417969368891386</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="19">
         <v>6000</v>
       </c>
@@ -10059,15 +10059,15 @@
       </c>
       <c r="L33" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M33" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N33" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O33" s="28">
         <v>37.5</v>
@@ -10077,24 +10077,24 @@
       </c>
       <c r="Q33" s="14">
         <f t="shared" si="2"/>
-        <v>0.51359255068602516</v>
+        <v>0.45196144460370213</v>
       </c>
       <c r="R33" s="20">
         <v>145</v>
       </c>
       <c r="S33" s="14">
         <f t="shared" si="3"/>
-        <v>0.59468611132066074</v>
+        <v>0.51359255068602516</v>
       </c>
       <c r="T33" s="20">
         <v>145</v>
       </c>
       <c r="U33" s="14">
         <f t="shared" si="4"/>
-        <v>0.70618975719328447</v>
+        <v>0.59468611132066074</v>
       </c>
     </row>
-    <row r="34" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="21">
         <v>6000</v>
       </c>
@@ -10123,15 +10123,15 @@
       </c>
       <c r="L34" s="41">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M34" s="42">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N34" s="41">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O34" s="35">
         <v>37.5</v>
@@ -10141,21 +10141,21 @@
       </c>
       <c r="Q34" s="40">
         <f t="shared" si="2"/>
-        <v>0.53130263864071559</v>
+        <v>0.46754632200382978</v>
       </c>
       <c r="R34" s="21">
         <v>150</v>
       </c>
       <c r="S34" s="40">
         <f t="shared" si="3"/>
-        <v>0.61519252895240761</v>
+        <v>0.53130263864071559</v>
       </c>
       <c r="T34" s="21">
         <v>150</v>
       </c>
       <c r="U34" s="40">
         <f t="shared" si="4"/>
-        <v>0.73054112813098404</v>
+        <v>0.61519252895240761</v>
       </c>
     </row>
   </sheetData>
@@ -10173,28 +10173,28 @@
       <selection activeCell="L34" sqref="L34:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D5" s="19">
         <v>6000</v>
       </c>
@@ -10331,15 +10331,15 @@
       </c>
       <c r="L5" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N5" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O5" s="28">
         <v>37.5</v>
@@ -10349,24 +10349,24 @@
       </c>
       <c r="Q5" s="14">
         <f>(O5*P5)/(K5*L5*G5)</f>
-        <v>1.5238984591208002E-2</v>
+        <v>1.3410306440263043E-2</v>
       </c>
       <c r="R5" s="19">
         <v>5</v>
       </c>
       <c r="S5" s="14">
         <f>(O5*R5)/(K5*M5*G5)</f>
-        <v>1.7645140052977688E-2</v>
+        <v>1.5238984591208002E-2</v>
       </c>
       <c r="T5" s="19">
         <v>5</v>
       </c>
       <c r="U5" s="14">
         <f>(O5*T5)/(K5*N5*G5)</f>
-        <v>2.0953603812911004E-2</v>
+        <v>1.7645140052977688E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D6" s="19">
         <v>6000</v>
       </c>
@@ -10395,15 +10395,15 @@
       </c>
       <c r="L6" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M6" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N6" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O6" s="28">
         <v>37.5</v>
@@ -10413,24 +10413,24 @@
       </c>
       <c r="Q6" s="14">
         <f t="shared" ref="Q6:Q34" si="2">(O6*P6)/(K6*L6*G6)</f>
-        <v>3.0477969182416003E-2</v>
+        <v>2.6820612880526087E-2</v>
       </c>
       <c r="R6" s="20">
         <v>10</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" ref="S6:S34" si="3">(O6*R6)/(K6*M6*G6)</f>
-        <v>3.5290280105955377E-2</v>
+        <v>3.0477969182416003E-2</v>
       </c>
       <c r="T6" s="20">
         <v>10</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" ref="U6:U34" si="4">(O6*T6)/(K6*N6*G6)</f>
-        <v>4.1907207625822007E-2</v>
+        <v>3.5290280105955377E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" s="19">
         <v>6000</v>
       </c>
@@ -10459,15 +10459,15 @@
       </c>
       <c r="L7" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M7" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N7" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O7" s="28">
         <v>37.5</v>
@@ -10477,24 +10477,24 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="2"/>
-        <v>4.571695377362401E-2</v>
+        <v>4.0230919320789128E-2</v>
       </c>
       <c r="R7" s="20">
         <v>15</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="3"/>
-        <v>5.2935420158933065E-2</v>
+        <v>4.571695377362401E-2</v>
       </c>
       <c r="T7" s="20">
         <v>15</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="4"/>
-        <v>6.2860811438733011E-2</v>
+        <v>5.2935420158933065E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>6000</v>
       </c>
@@ -10523,15 +10523,15 @@
       </c>
       <c r="L8" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M8" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N8" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="28">
         <v>37.5</v>
@@ -10541,24 +10541,24 @@
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="2"/>
-        <v>6.0955938364832006E-2</v>
+        <v>5.3641225761052173E-2</v>
       </c>
       <c r="R8" s="20">
         <v>20</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="3"/>
-        <v>7.0580560211910753E-2</v>
+        <v>6.0955938364832006E-2</v>
       </c>
       <c r="T8" s="20">
         <v>20</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="4"/>
-        <v>8.3814415251644014E-2</v>
+        <v>7.0580560211910753E-2</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="19">
         <v>6000</v>
       </c>
@@ -10587,15 +10587,15 @@
       </c>
       <c r="L9" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M9" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N9" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O9" s="28">
         <v>37.5</v>
@@ -10605,24 +10605,24 @@
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="2"/>
-        <v>7.6194922956040009E-2</v>
+        <v>6.7051532201315212E-2</v>
       </c>
       <c r="R9" s="20">
         <v>25</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="3"/>
-        <v>8.8225700264888435E-2</v>
+        <v>7.6194922956040009E-2</v>
       </c>
       <c r="T9" s="20">
         <v>25</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="4"/>
-        <v>0.10476801906455502</v>
+        <v>8.8225700264888435E-2</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" s="19">
         <v>6000</v>
       </c>
@@ -10651,15 +10651,15 @@
       </c>
       <c r="L10" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M10" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N10" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O10" s="28">
         <v>37.5</v>
@@ -10669,24 +10669,24 @@
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="2"/>
-        <v>9.1433907547248019E-2</v>
+        <v>8.0461838641578257E-2</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="3"/>
-        <v>0.10587084031786613</v>
+        <v>9.1433907547248019E-2</v>
       </c>
       <c r="T10" s="20">
         <v>30</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="4"/>
-        <v>0.12572162287746602</v>
+        <v>0.10587084031786613</v>
       </c>
     </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" s="19">
         <v>6000</v>
       </c>
@@ -10715,15 +10715,15 @@
       </c>
       <c r="L11" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M11" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N11" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O11" s="28">
         <v>37.5</v>
@@ -10733,24 +10733,24 @@
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
-        <v>0.10667289213845602</v>
+        <v>9.3872145081841302E-2</v>
       </c>
       <c r="R11" s="20">
         <v>35</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="3"/>
-        <v>0.12351598037084381</v>
+        <v>0.10667289213845602</v>
       </c>
       <c r="T11" s="20">
         <v>35</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="4"/>
-        <v>0.14667522669037703</v>
+        <v>0.12351598037084381</v>
       </c>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="19">
         <v>6000</v>
       </c>
@@ -10779,15 +10779,15 @@
       </c>
       <c r="L12" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M12" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N12" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O12" s="28">
         <v>37.5</v>
@@ -10797,24 +10797,24 @@
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
-        <v>0.12191187672966401</v>
+        <v>0.10728245152210435</v>
       </c>
       <c r="R12" s="20">
         <v>40</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="3"/>
-        <v>0.14116112042382151</v>
+        <v>0.12191187672966401</v>
       </c>
       <c r="T12" s="20">
         <v>40</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="4"/>
-        <v>0.16762883050328803</v>
+        <v>0.14116112042382151</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="19">
         <v>6000</v>
       </c>
@@ -10843,15 +10843,15 @@
       </c>
       <c r="L13" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M13" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N13" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O13" s="28">
         <v>37.5</v>
@@ -10861,24 +10861,24 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>0.13715086132087201</v>
+        <v>0.12069275796236739</v>
       </c>
       <c r="R13" s="20">
         <v>45</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="3"/>
-        <v>0.15880626047679919</v>
+        <v>0.13715086132087201</v>
       </c>
       <c r="T13" s="20">
         <v>45</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>0.18858243431619903</v>
+        <v>0.15880626047679919</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <v>6000</v>
       </c>
@@ -10907,15 +10907,15 @@
       </c>
       <c r="L14" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M14" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N14" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O14" s="28">
         <v>37.5</v>
@@ -10925,24 +10925,24 @@
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>0.15238984591208002</v>
+        <v>0.13410306440263042</v>
       </c>
       <c r="R14" s="20">
         <v>50</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="3"/>
-        <v>0.17645140052977687</v>
+        <v>0.15238984591208002</v>
       </c>
       <c r="T14" s="20">
         <v>50</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>0.20953603812911004</v>
+        <v>0.17645140052977687</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>6000</v>
       </c>
@@ -10971,15 +10971,15 @@
       </c>
       <c r="L15" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M15" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N15" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O15" s="28">
         <v>37.5</v>
@@ -10989,24 +10989,24 @@
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>0.16762883050328803</v>
+        <v>0.14751337084289348</v>
       </c>
       <c r="R15" s="20">
         <v>55</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="3"/>
-        <v>0.19409654058275455</v>
+        <v>0.16762883050328803</v>
       </c>
       <c r="T15" s="20">
         <v>55</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="4"/>
-        <v>0.23048964194202104</v>
+        <v>0.19409654058275455</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>6000</v>
       </c>
@@ -11035,15 +11035,15 @@
       </c>
       <c r="L16" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M16" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N16" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O16" s="28">
         <v>37.5</v>
@@ -11053,24 +11053,24 @@
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>0.18286781509449604</v>
+        <v>0.16092367728315651</v>
       </c>
       <c r="R16" s="20">
         <v>60</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="3"/>
-        <v>0.21174168063573226</v>
+        <v>0.18286781509449604</v>
       </c>
       <c r="T16" s="20">
         <v>60</v>
       </c>
       <c r="U16" s="14">
         <f t="shared" si="4"/>
-        <v>0.25144324575493204</v>
+        <v>0.21174168063573226</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>6000</v>
       </c>
@@ -11099,15 +11099,15 @@
       </c>
       <c r="L17" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M17" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N17" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O17" s="28">
         <v>37.5</v>
@@ -11117,24 +11117,24 @@
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>0.19810679968570402</v>
+        <v>0.17433398372341957</v>
       </c>
       <c r="R17" s="20">
         <v>65</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="3"/>
-        <v>0.22938682068870994</v>
+        <v>0.19810679968570402</v>
       </c>
       <c r="T17" s="20">
         <v>65</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" si="4"/>
-        <v>0.27239684956784305</v>
+        <v>0.22938682068870994</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>6000</v>
       </c>
@@ -11163,15 +11163,15 @@
       </c>
       <c r="L18" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M18" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N18" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O18" s="28">
         <v>37.5</v>
@@ -11181,24 +11181,24 @@
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>0.21334578427691203</v>
+        <v>0.1877442901636826</v>
       </c>
       <c r="R18" s="20">
         <v>70</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="3"/>
-        <v>0.24703196074168762</v>
+        <v>0.21334578427691203</v>
       </c>
       <c r="T18" s="20">
         <v>70</v>
       </c>
       <c r="U18" s="14">
         <f t="shared" si="4"/>
-        <v>0.29335045338075405</v>
+        <v>0.24703196074168762</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>6000</v>
       </c>
@@ -11227,15 +11227,15 @@
       </c>
       <c r="L19" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M19" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N19" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O19" s="28">
         <v>37.5</v>
@@ -11245,24 +11245,24 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>0.22858476886812004</v>
+        <v>0.20115459660394566</v>
       </c>
       <c r="R19" s="20">
         <v>75</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="3"/>
-        <v>0.26467710079466533</v>
+        <v>0.22858476886812004</v>
       </c>
       <c r="T19" s="20">
         <v>75</v>
       </c>
       <c r="U19" s="14">
         <f t="shared" si="4"/>
-        <v>0.31430405719366505</v>
+        <v>0.26467710079466533</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>6000</v>
       </c>
@@ -11291,15 +11291,15 @@
       </c>
       <c r="L20" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M20" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N20" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O20" s="28">
         <v>37.5</v>
@@ -11309,24 +11309,24 @@
       </c>
       <c r="Q20" s="14">
         <f t="shared" si="2"/>
-        <v>0.24382375345932802</v>
+        <v>0.21456490304420869</v>
       </c>
       <c r="R20" s="20">
         <v>80</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="3"/>
-        <v>0.28232224084764301</v>
+        <v>0.24382375345932802</v>
       </c>
       <c r="T20" s="20">
         <v>80</v>
       </c>
       <c r="U20" s="14">
         <f t="shared" si="4"/>
-        <v>0.33525766100657606</v>
+        <v>0.28232224084764301</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>6000</v>
       </c>
@@ -11355,15 +11355,15 @@
       </c>
       <c r="L21" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M21" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N21" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O21" s="28">
         <v>37.5</v>
@@ -11373,24 +11373,24 @@
       </c>
       <c r="Q21" s="14">
         <f t="shared" si="2"/>
-        <v>0.25906273805053603</v>
+        <v>0.22797520948447172</v>
       </c>
       <c r="R21" s="20">
         <v>85</v>
       </c>
       <c r="S21" s="14">
         <f t="shared" si="3"/>
-        <v>0.29996738090062069</v>
+        <v>0.25906273805053603</v>
       </c>
       <c r="T21" s="20">
         <v>85</v>
       </c>
       <c r="U21" s="14">
         <f t="shared" si="4"/>
-        <v>0.35621126481948706</v>
+        <v>0.29996738090062069</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>6000</v>
       </c>
@@ -11419,15 +11419,15 @@
       </c>
       <c r="L22" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M22" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N22" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O22" s="28">
         <v>37.5</v>
@@ -11437,24 +11437,24 @@
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="2"/>
-        <v>0.27430172264174402</v>
+        <v>0.24138551592473478</v>
       </c>
       <c r="R22" s="20">
         <v>90</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="3"/>
-        <v>0.31761252095359838</v>
+        <v>0.27430172264174402</v>
       </c>
       <c r="T22" s="20">
         <v>90</v>
       </c>
       <c r="U22" s="14">
         <f t="shared" si="4"/>
-        <v>0.37716486863239806</v>
+        <v>0.31761252095359838</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>6000</v>
       </c>
@@ -11483,15 +11483,15 @@
       </c>
       <c r="L23" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M23" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N23" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O23" s="28">
         <v>37.5</v>
@@ -11501,24 +11501,24 @@
       </c>
       <c r="Q23" s="14">
         <f t="shared" si="2"/>
-        <v>0.28954070723295205</v>
+        <v>0.25479582236499781</v>
       </c>
       <c r="R23" s="20">
         <v>95</v>
       </c>
       <c r="S23" s="14">
         <f t="shared" si="3"/>
-        <v>0.33525766100657606</v>
+        <v>0.28954070723295205</v>
       </c>
       <c r="T23" s="20">
         <v>95</v>
       </c>
       <c r="U23" s="14">
         <f t="shared" si="4"/>
-        <v>0.39811847244530907</v>
+        <v>0.33525766100657606</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>6000</v>
       </c>
@@ -11547,15 +11547,15 @@
       </c>
       <c r="L24" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M24" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N24" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O24" s="28">
         <v>37.5</v>
@@ -11565,24 +11565,24 @@
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
-        <v>0.30477969182416004</v>
+        <v>0.26820612880526085</v>
       </c>
       <c r="R24" s="20">
         <v>100</v>
       </c>
       <c r="S24" s="14">
         <f t="shared" si="3"/>
-        <v>0.35290280105955374</v>
+        <v>0.30477969182416004</v>
       </c>
       <c r="T24" s="20">
         <v>100</v>
       </c>
       <c r="U24" s="14">
         <f t="shared" si="4"/>
-        <v>0.41907207625822007</v>
+        <v>0.35290280105955374</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>6000</v>
       </c>
@@ -11611,15 +11611,15 @@
       </c>
       <c r="L25" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M25" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N25" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O25" s="28">
         <v>37.5</v>
@@ -11629,24 +11629,24 @@
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="2"/>
-        <v>0.32001867641536802</v>
+        <v>0.28161643524552393</v>
       </c>
       <c r="R25" s="20">
         <v>105</v>
       </c>
       <c r="S25" s="14">
         <f t="shared" si="3"/>
-        <v>0.37054794111253142</v>
+        <v>0.32001867641536802</v>
       </c>
       <c r="T25" s="20">
         <v>105</v>
       </c>
       <c r="U25" s="14">
         <f t="shared" si="4"/>
-        <v>0.44002568007113108</v>
+        <v>0.37054794111253142</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>6000</v>
       </c>
@@ -11675,15 +11675,15 @@
       </c>
       <c r="L26" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M26" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N26" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O26" s="28">
         <v>37.5</v>
@@ -11693,24 +11693,24 @@
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
-        <v>0.33525766100657606</v>
+        <v>0.29502674168578696</v>
       </c>
       <c r="R26" s="20">
         <v>110</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="3"/>
-        <v>0.3881930811655091</v>
+        <v>0.33525766100657606</v>
       </c>
       <c r="T26" s="20">
         <v>110</v>
       </c>
       <c r="U26" s="14">
         <f t="shared" si="4"/>
-        <v>0.46097928388404208</v>
+        <v>0.3881930811655091</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="19">
         <v>6000</v>
       </c>
@@ -11739,15 +11739,15 @@
       </c>
       <c r="L27" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N27" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O27" s="28">
         <v>37.5</v>
@@ -11757,24 +11757,24 @@
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="2"/>
-        <v>0.35049664559778404</v>
+        <v>0.30843704812605</v>
       </c>
       <c r="R27" s="20">
         <v>115</v>
       </c>
       <c r="S27" s="14">
         <f t="shared" si="3"/>
-        <v>0.40583822121848678</v>
+        <v>0.35049664559778404</v>
       </c>
       <c r="T27" s="20">
         <v>115</v>
       </c>
       <c r="U27" s="14">
         <f t="shared" si="4"/>
-        <v>0.48193288769695308</v>
+        <v>0.40583822121848678</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="19">
         <v>6000</v>
       </c>
@@ -11803,15 +11803,15 @@
       </c>
       <c r="L28" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M28" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N28" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O28" s="28">
         <v>37.5</v>
@@ -11821,24 +11821,24 @@
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="2"/>
-        <v>0.36573563018899208</v>
+        <v>0.32184735456631303</v>
       </c>
       <c r="R28" s="20">
         <v>120</v>
       </c>
       <c r="S28" s="14">
         <f t="shared" si="3"/>
-        <v>0.42348336127146452</v>
+        <v>0.36573563018899208</v>
       </c>
       <c r="T28" s="20">
         <v>120</v>
       </c>
       <c r="U28" s="14">
         <f t="shared" si="4"/>
-        <v>0.50288649150986409</v>
+        <v>0.42348336127146452</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="19">
         <v>6000</v>
       </c>
@@ -11867,15 +11867,15 @@
       </c>
       <c r="L29" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M29" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N29" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O29" s="28">
         <v>37.5</v>
@@ -11885,24 +11885,24 @@
       </c>
       <c r="Q29" s="14">
         <f t="shared" si="2"/>
-        <v>0.38097461478020006</v>
+        <v>0.33525766100657606</v>
       </c>
       <c r="R29" s="20">
         <v>125</v>
       </c>
       <c r="S29" s="14">
         <f t="shared" si="3"/>
-        <v>0.4411285013244422</v>
+        <v>0.38097461478020006</v>
       </c>
       <c r="T29" s="20">
         <v>125</v>
       </c>
       <c r="U29" s="14">
         <f t="shared" si="4"/>
-        <v>0.52384009532277509</v>
+        <v>0.4411285013244422</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>6000</v>
       </c>
@@ -11931,15 +11931,15 @@
       </c>
       <c r="L30" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M30" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N30" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O30" s="28">
         <v>37.5</v>
@@ -11949,24 +11949,24 @@
       </c>
       <c r="Q30" s="14">
         <f t="shared" si="2"/>
-        <v>0.39621359937140804</v>
+        <v>0.34866796744683914</v>
       </c>
       <c r="R30" s="20">
         <v>130</v>
       </c>
       <c r="S30" s="14">
         <f t="shared" si="3"/>
-        <v>0.45877364137741988</v>
+        <v>0.39621359937140804</v>
       </c>
       <c r="T30" s="20">
         <v>130</v>
       </c>
       <c r="U30" s="14">
         <f t="shared" si="4"/>
-        <v>0.54479369913568609</v>
+        <v>0.45877364137741988</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="19">
         <v>6000</v>
       </c>
@@ -11995,15 +11995,15 @@
       </c>
       <c r="L31" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M31" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N31" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O31" s="28">
         <v>37.5</v>
@@ -12013,24 +12013,24 @@
       </c>
       <c r="Q31" s="14">
         <f t="shared" si="2"/>
-        <v>0.41145258396261608</v>
+        <v>0.36207827388710218</v>
       </c>
       <c r="R31" s="20">
         <v>135</v>
       </c>
       <c r="S31" s="14">
         <f t="shared" si="3"/>
-        <v>0.47641878143039756</v>
+        <v>0.41145258396261608</v>
       </c>
       <c r="T31" s="20">
         <v>135</v>
       </c>
       <c r="U31" s="14">
         <f t="shared" si="4"/>
-        <v>0.5657473029485971</v>
+        <v>0.47641878143039756</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="19">
         <v>6000</v>
       </c>
@@ -12059,15 +12059,15 @@
       </c>
       <c r="L32" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M32" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N32" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O32" s="28">
         <v>37.5</v>
@@ -12077,24 +12077,24 @@
       </c>
       <c r="Q32" s="14">
         <f t="shared" si="2"/>
-        <v>0.42669156855382406</v>
+        <v>0.37548858032736521</v>
       </c>
       <c r="R32" s="20">
         <v>140</v>
       </c>
       <c r="S32" s="14">
         <f t="shared" si="3"/>
-        <v>0.49406392148337525</v>
+        <v>0.42669156855382406</v>
       </c>
       <c r="T32" s="20">
         <v>140</v>
       </c>
       <c r="U32" s="14">
         <f t="shared" si="4"/>
-        <v>0.5867009067615081</v>
+        <v>0.49406392148337525</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="19">
         <v>6000</v>
       </c>
@@ -12123,15 +12123,15 @@
       </c>
       <c r="L33" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M33" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N33" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O33" s="28">
         <v>37.5</v>
@@ -12141,24 +12141,24 @@
       </c>
       <c r="Q33" s="14">
         <f t="shared" si="2"/>
-        <v>0.44193055314503205</v>
+        <v>0.38889888676762824</v>
       </c>
       <c r="R33" s="20">
         <v>145</v>
       </c>
       <c r="S33" s="14">
         <f t="shared" si="3"/>
-        <v>0.51170906153635298</v>
+        <v>0.44193055314503205</v>
       </c>
       <c r="T33" s="20">
         <v>145</v>
       </c>
       <c r="U33" s="14">
         <f t="shared" si="4"/>
-        <v>0.6076545105744191</v>
+        <v>0.51170906153635298</v>
       </c>
     </row>
-    <row r="34" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="21">
         <v>6000</v>
       </c>
@@ -12187,15 +12187,15 @@
       </c>
       <c r="L34" s="41">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M34" s="42">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N34" s="41">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O34" s="35">
         <v>37.5</v>
@@ -12205,21 +12205,21 @@
       </c>
       <c r="Q34" s="40">
         <f t="shared" si="2"/>
-        <v>0.45716953773624008</v>
+        <v>0.40230919320789132</v>
       </c>
       <c r="R34" s="21">
         <v>150</v>
       </c>
       <c r="S34" s="40">
         <f t="shared" si="3"/>
-        <v>0.52935420158933066</v>
+        <v>0.45716953773624008</v>
       </c>
       <c r="T34" s="21">
         <v>150</v>
       </c>
       <c r="U34" s="40">
         <f t="shared" si="4"/>
-        <v>0.62860811438733011</v>
+        <v>0.52935420158933066</v>
       </c>
     </row>
   </sheetData>
@@ -12233,32 +12233,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8EC63F-F19A-458B-B1F0-E1A1562DF35A}">
   <dimension ref="D2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+    <sheetView topLeftCell="B20" workbookViewId="0">
       <selection activeCell="L34" sqref="L34:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D5" s="19">
         <v>4000</v>
       </c>
@@ -12395,15 +12395,15 @@
       </c>
       <c r="L5" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N5" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O5" s="28">
         <v>37.5</v>
@@ -12413,24 +12413,24 @@
       </c>
       <c r="Q5" s="14">
         <f>(O5*P5)/(K5*L5*G5)</f>
-        <v>2.7066915169091536E-2</v>
+        <v>2.3818885348800552E-2</v>
       </c>
       <c r="R5" s="19">
         <v>5</v>
       </c>
       <c r="S5" s="14">
         <f>(O5*R5)/(K5*M5*G5)</f>
-        <v>3.1340638616842838E-2</v>
+        <v>2.7066915169091536E-2</v>
       </c>
       <c r="T5" s="19">
         <v>5</v>
       </c>
       <c r="U5" s="14">
         <f>(O5*T5)/(K5*N5*G5)</f>
-        <v>3.7217008357500858E-2</v>
+        <v>3.1340638616842838E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D6" s="19">
         <v>4000</v>
       </c>
@@ -12459,15 +12459,15 @@
       </c>
       <c r="L6" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M6" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N6" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O6" s="28">
         <v>37.5</v>
@@ -12477,24 +12477,24 @@
       </c>
       <c r="Q6" s="14">
         <f t="shared" ref="Q6:Q34" si="2">(O6*P6)/(K6*L6*G6)</f>
-        <v>5.4133830338183073E-2</v>
+        <v>4.7637770697601105E-2</v>
       </c>
       <c r="R6" s="20">
         <v>10</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" ref="S6:S34" si="3">(O6*R6)/(K6*M6*G6)</f>
-        <v>6.2681277233685675E-2</v>
+        <v>5.4133830338183073E-2</v>
       </c>
       <c r="T6" s="20">
         <v>10</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" ref="U6:U34" si="4">(O6*T6)/(K6*N6*G6)</f>
-        <v>7.4434016715001716E-2</v>
+        <v>6.2681277233685675E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" s="19">
         <v>4000</v>
       </c>
@@ -12523,15 +12523,15 @@
       </c>
       <c r="L7" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M7" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N7" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O7" s="28">
         <v>37.5</v>
@@ -12541,24 +12541,24 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="2"/>
-        <v>8.1200745507274602E-2</v>
+        <v>7.1456656046401654E-2</v>
       </c>
       <c r="R7" s="20">
         <v>15</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="3"/>
-        <v>9.4021915850528506E-2</v>
+        <v>8.1200745507274602E-2</v>
       </c>
       <c r="T7" s="20">
         <v>15</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="4"/>
-        <v>0.11165102507250257</v>
+        <v>9.4021915850528506E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>4000</v>
       </c>
@@ -12587,15 +12587,15 @@
       </c>
       <c r="L8" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M8" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N8" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="28">
         <v>37.5</v>
@@ -12605,24 +12605,24 @@
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="2"/>
-        <v>0.10826766067636615</v>
+        <v>9.527554139520221E-2</v>
       </c>
       <c r="R8" s="20">
         <v>20</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="3"/>
-        <v>0.12536255446737135</v>
+        <v>0.10826766067636615</v>
       </c>
       <c r="T8" s="20">
         <v>20</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="4"/>
-        <v>0.14886803343000343</v>
+        <v>0.12536255446737135</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="19">
         <v>4000</v>
       </c>
@@ -12651,15 +12651,15 @@
       </c>
       <c r="L9" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M9" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N9" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O9" s="28">
         <v>37.5</v>
@@ -12669,24 +12669,24 @@
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="2"/>
-        <v>0.13533457584545769</v>
+        <v>0.11909442674400277</v>
       </c>
       <c r="R9" s="20">
         <v>25</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="3"/>
-        <v>0.15670319308421418</v>
+        <v>0.13533457584545769</v>
       </c>
       <c r="T9" s="20">
         <v>25</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="4"/>
-        <v>0.18608504178750429</v>
+        <v>0.15670319308421418</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" s="19">
         <v>4000</v>
       </c>
@@ -12715,15 +12715,15 @@
       </c>
       <c r="L10" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M10" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N10" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O10" s="28">
         <v>37.5</v>
@@ -12733,24 +12733,24 @@
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="2"/>
-        <v>0.1624014910145492</v>
+        <v>0.14291331209280331</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="3"/>
-        <v>0.18804383170105701</v>
+        <v>0.1624014910145492</v>
       </c>
       <c r="T10" s="20">
         <v>30</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="4"/>
-        <v>0.22330205014500515</v>
+        <v>0.18804383170105701</v>
       </c>
     </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" s="19">
         <v>4000</v>
       </c>
@@ -12779,15 +12779,15 @@
       </c>
       <c r="L11" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M11" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N11" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O11" s="28">
         <v>37.5</v>
@@ -12797,24 +12797,24 @@
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
-        <v>0.18946840618364075</v>
+        <v>0.16673219744160386</v>
       </c>
       <c r="R11" s="20">
         <v>35</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="3"/>
-        <v>0.21938447031789984</v>
+        <v>0.18946840618364075</v>
       </c>
       <c r="T11" s="20">
         <v>35</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="4"/>
-        <v>0.26051905850250601</v>
+        <v>0.21938447031789984</v>
       </c>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="19">
         <v>4000</v>
       </c>
@@ -12843,15 +12843,15 @@
       </c>
       <c r="L12" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M12" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N12" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O12" s="28">
         <v>37.5</v>
@@ -12861,24 +12861,24 @@
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
-        <v>0.21653532135273229</v>
+        <v>0.19055108279040442</v>
       </c>
       <c r="R12" s="20">
         <v>40</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="3"/>
-        <v>0.2507251089347427</v>
+        <v>0.21653532135273229</v>
       </c>
       <c r="T12" s="20">
         <v>40</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="4"/>
-        <v>0.29773606686000686</v>
+        <v>0.2507251089347427</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="19">
         <v>4000</v>
       </c>
@@ -12907,15 +12907,15 @@
       </c>
       <c r="L13" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M13" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N13" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O13" s="28">
         <v>37.5</v>
@@ -12925,24 +12925,24 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>0.24360223652182383</v>
+        <v>0.21436996813920497</v>
       </c>
       <c r="R13" s="20">
         <v>45</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="3"/>
-        <v>0.28206574755158553</v>
+        <v>0.24360223652182383</v>
       </c>
       <c r="T13" s="20">
         <v>45</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>0.33495307521750772</v>
+        <v>0.28206574755158553</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <v>4000</v>
       </c>
@@ -12971,15 +12971,15 @@
       </c>
       <c r="L14" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M14" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N14" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O14" s="28">
         <v>37.5</v>
@@ -12989,24 +12989,24 @@
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>0.27066915169091538</v>
+        <v>0.23818885348800553</v>
       </c>
       <c r="R14" s="20">
         <v>50</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="3"/>
-        <v>0.31340638616842836</v>
+        <v>0.27066915169091538</v>
       </c>
       <c r="T14" s="20">
         <v>50</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>0.37217008357500858</v>
+        <v>0.31340638616842836</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>4000</v>
       </c>
@@ -13035,15 +13035,15 @@
       </c>
       <c r="L15" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M15" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N15" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O15" s="28">
         <v>37.5</v>
@@ -13053,24 +13053,24 @@
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>0.29773606686000692</v>
+        <v>0.26200773883680606</v>
       </c>
       <c r="R15" s="20">
         <v>55</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="3"/>
-        <v>0.34474702478527119</v>
+        <v>0.29773606686000692</v>
       </c>
       <c r="T15" s="20">
         <v>55</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="4"/>
-        <v>0.40938709193250944</v>
+        <v>0.34474702478527119</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>4000</v>
       </c>
@@ -13099,15 +13099,15 @@
       </c>
       <c r="L16" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M16" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N16" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O16" s="28">
         <v>37.5</v>
@@ -13117,24 +13117,24 @@
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>0.32480298202909841</v>
+        <v>0.28582662418560661</v>
       </c>
       <c r="R16" s="20">
         <v>60</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="3"/>
-        <v>0.37608766340211403</v>
+        <v>0.32480298202909841</v>
       </c>
       <c r="T16" s="20">
         <v>60</v>
       </c>
       <c r="U16" s="14">
         <f t="shared" si="4"/>
-        <v>0.4466041002900103</v>
+        <v>0.37608766340211403</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>4000</v>
       </c>
@@ -13163,15 +13163,15 @@
       </c>
       <c r="L17" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M17" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N17" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O17" s="28">
         <v>37.5</v>
@@ -13181,24 +13181,24 @@
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>0.35186989719818995</v>
+        <v>0.30964550953440717</v>
       </c>
       <c r="R17" s="20">
         <v>65</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="3"/>
-        <v>0.40742830201895686</v>
+        <v>0.35186989719818995</v>
       </c>
       <c r="T17" s="20">
         <v>65</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" si="4"/>
-        <v>0.48382110864751116</v>
+        <v>0.40742830201895686</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>4000</v>
       </c>
@@ -13227,15 +13227,15 @@
       </c>
       <c r="L18" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M18" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N18" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O18" s="28">
         <v>37.5</v>
@@ -13245,24 +13245,24 @@
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>0.37893681236728149</v>
+        <v>0.33346439488320773</v>
       </c>
       <c r="R18" s="20">
         <v>70</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="3"/>
-        <v>0.43876894063579969</v>
+        <v>0.37893681236728149</v>
       </c>
       <c r="T18" s="20">
         <v>70</v>
       </c>
       <c r="U18" s="14">
         <f t="shared" si="4"/>
-        <v>0.52103811700501201</v>
+        <v>0.43876894063579969</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>4000</v>
       </c>
@@ -13291,15 +13291,15 @@
       </c>
       <c r="L19" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M19" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N19" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O19" s="28">
         <v>37.5</v>
@@ -13309,24 +13309,24 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>0.40600372753637304</v>
+        <v>0.35728328023200828</v>
       </c>
       <c r="R19" s="20">
         <v>75</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="3"/>
-        <v>0.47010957925264252</v>
+        <v>0.40600372753637304</v>
       </c>
       <c r="T19" s="20">
         <v>75</v>
       </c>
       <c r="U19" s="14">
         <f t="shared" si="4"/>
-        <v>0.55825512536251287</v>
+        <v>0.47010957925264252</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>4000</v>
       </c>
@@ -13355,15 +13355,15 @@
       </c>
       <c r="L20" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M20" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N20" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O20" s="28">
         <v>37.5</v>
@@ -13373,24 +13373,24 @@
       </c>
       <c r="Q20" s="14">
         <f t="shared" si="2"/>
-        <v>0.43307064270546458</v>
+        <v>0.38110216558080884</v>
       </c>
       <c r="R20" s="20">
         <v>80</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="3"/>
-        <v>0.5014502178694854</v>
+        <v>0.43307064270546458</v>
       </c>
       <c r="T20" s="20">
         <v>80</v>
       </c>
       <c r="U20" s="14">
         <f t="shared" si="4"/>
-        <v>0.59547213372001373</v>
+        <v>0.5014502178694854</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>4000</v>
       </c>
@@ -13419,15 +13419,15 @@
       </c>
       <c r="L21" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M21" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N21" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O21" s="28">
         <v>37.5</v>
@@ -13437,24 +13437,24 @@
       </c>
       <c r="Q21" s="14">
         <f t="shared" si="2"/>
-        <v>0.46013755787455612</v>
+        <v>0.40492105092960939</v>
       </c>
       <c r="R21" s="20">
         <v>85</v>
       </c>
       <c r="S21" s="14">
         <f t="shared" si="3"/>
-        <v>0.53279085648632818</v>
+        <v>0.46013755787455612</v>
       </c>
       <c r="T21" s="20">
         <v>85</v>
       </c>
       <c r="U21" s="14">
         <f t="shared" si="4"/>
-        <v>0.63268914207751459</v>
+        <v>0.53279085648632818</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>4000</v>
       </c>
@@ -13483,15 +13483,15 @@
       </c>
       <c r="L22" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M22" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N22" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O22" s="28">
         <v>37.5</v>
@@ -13501,24 +13501,24 @@
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="2"/>
-        <v>0.48720447304364767</v>
+        <v>0.42873993627840995</v>
       </c>
       <c r="R22" s="20">
         <v>90</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="3"/>
-        <v>0.56413149510317107</v>
+        <v>0.48720447304364767</v>
       </c>
       <c r="T22" s="20">
         <v>90</v>
       </c>
       <c r="U22" s="14">
         <f t="shared" si="4"/>
-        <v>0.66990615043501545</v>
+        <v>0.56413149510317107</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>4000</v>
       </c>
@@ -13547,15 +13547,15 @@
       </c>
       <c r="L23" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M23" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N23" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O23" s="28">
         <v>37.5</v>
@@ -13565,24 +13565,24 @@
       </c>
       <c r="Q23" s="14">
         <f t="shared" si="2"/>
-        <v>0.51427138821273921</v>
+        <v>0.45255882162721051</v>
       </c>
       <c r="R23" s="20">
         <v>95</v>
       </c>
       <c r="S23" s="14">
         <f t="shared" si="3"/>
-        <v>0.59547213372001384</v>
+        <v>0.51427138821273921</v>
       </c>
       <c r="T23" s="20">
         <v>95</v>
       </c>
       <c r="U23" s="14">
         <f t="shared" si="4"/>
-        <v>0.7071231587925163</v>
+        <v>0.59547213372001384</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>4000</v>
       </c>
@@ -13611,15 +13611,15 @@
       </c>
       <c r="L24" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M24" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N24" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O24" s="28">
         <v>37.5</v>
@@ -13629,24 +13629,24 @@
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
-        <v>0.54133830338183075</v>
+        <v>0.47637770697601106</v>
       </c>
       <c r="R24" s="20">
         <v>100</v>
       </c>
       <c r="S24" s="14">
         <f t="shared" si="3"/>
-        <v>0.62681277233685673</v>
+        <v>0.54133830338183075</v>
       </c>
       <c r="T24" s="20">
         <v>100</v>
       </c>
       <c r="U24" s="14">
         <f t="shared" si="4"/>
-        <v>0.74434016715001716</v>
+        <v>0.62681277233685673</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>4000</v>
       </c>
@@ -13675,15 +13675,15 @@
       </c>
       <c r="L25" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M25" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N25" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O25" s="28">
         <v>37.5</v>
@@ -13693,24 +13693,24 @@
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="2"/>
-        <v>0.5684052185509223</v>
+        <v>0.50019659232481162</v>
       </c>
       <c r="R25" s="20">
         <v>105</v>
       </c>
       <c r="S25" s="14">
         <f t="shared" si="3"/>
-        <v>0.6581534109536995</v>
+        <v>0.5684052185509223</v>
       </c>
       <c r="T25" s="20">
         <v>105</v>
       </c>
       <c r="U25" s="14">
         <f t="shared" si="4"/>
-        <v>0.78155717550751802</v>
+        <v>0.6581534109536995</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>4000</v>
       </c>
@@ -13739,15 +13739,15 @@
       </c>
       <c r="L26" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M26" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N26" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O26" s="28">
         <v>37.5</v>
@@ -13757,24 +13757,24 @@
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
-        <v>0.59547213372001384</v>
+        <v>0.52401547767361212</v>
       </c>
       <c r="R26" s="20">
         <v>110</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="3"/>
-        <v>0.68949404957054239</v>
+        <v>0.59547213372001384</v>
       </c>
       <c r="T26" s="20">
         <v>110</v>
       </c>
       <c r="U26" s="14">
         <f t="shared" si="4"/>
-        <v>0.81877418386501888</v>
+        <v>0.68949404957054239</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="19">
         <v>4000</v>
       </c>
@@ -13803,15 +13803,15 @@
       </c>
       <c r="L27" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N27" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O27" s="28">
         <v>37.5</v>
@@ -13821,24 +13821,24 @@
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="2"/>
-        <v>0.62253904888910538</v>
+        <v>0.54783436302241273</v>
       </c>
       <c r="R27" s="20">
         <v>115</v>
       </c>
       <c r="S27" s="14">
         <f t="shared" si="3"/>
-        <v>0.72083468818738516</v>
+        <v>0.62253904888910538</v>
       </c>
       <c r="T27" s="20">
         <v>115</v>
       </c>
       <c r="U27" s="14">
         <f t="shared" si="4"/>
-        <v>0.85599119222251974</v>
+        <v>0.72083468818738516</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="19">
         <v>4000</v>
       </c>
@@ -13867,15 +13867,15 @@
       </c>
       <c r="L28" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M28" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N28" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O28" s="28">
         <v>37.5</v>
@@ -13885,24 +13885,24 @@
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="2"/>
-        <v>0.64960596405819682</v>
+        <v>0.57165324837121323</v>
       </c>
       <c r="R28" s="20">
         <v>120</v>
       </c>
       <c r="S28" s="14">
         <f t="shared" si="3"/>
-        <v>0.75217532680422805</v>
+        <v>0.64960596405819682</v>
       </c>
       <c r="T28" s="20">
         <v>120</v>
       </c>
       <c r="U28" s="14">
         <f t="shared" si="4"/>
-        <v>0.89320820058002059</v>
+        <v>0.75217532680422805</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="19">
         <v>4000</v>
       </c>
@@ -13931,15 +13931,15 @@
       </c>
       <c r="L29" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M29" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N29" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O29" s="28">
         <v>37.5</v>
@@ -13949,24 +13949,24 @@
       </c>
       <c r="Q29" s="14">
         <f t="shared" si="2"/>
-        <v>0.67667287922728836</v>
+        <v>0.59547213372001384</v>
       </c>
       <c r="R29" s="20">
         <v>125</v>
       </c>
       <c r="S29" s="14">
         <f t="shared" si="3"/>
-        <v>0.78351596542107083</v>
+        <v>0.67667287922728836</v>
       </c>
       <c r="T29" s="20">
         <v>125</v>
       </c>
       <c r="U29" s="14">
         <f t="shared" si="4"/>
-        <v>0.93042520893752145</v>
+        <v>0.78351596542107083</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>4000</v>
       </c>
@@ -13995,15 +13995,15 @@
       </c>
       <c r="L30" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M30" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N30" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O30" s="28">
         <v>37.5</v>
@@ -14013,24 +14013,24 @@
       </c>
       <c r="Q30" s="14">
         <f t="shared" si="2"/>
-        <v>0.7037397943963799</v>
+        <v>0.61929101906881434</v>
       </c>
       <c r="R30" s="20">
         <v>130</v>
       </c>
       <c r="S30" s="14">
         <f t="shared" si="3"/>
-        <v>0.81485660403791371</v>
+        <v>0.7037397943963799</v>
       </c>
       <c r="T30" s="20">
         <v>130</v>
       </c>
       <c r="U30" s="14">
         <f t="shared" si="4"/>
-        <v>0.96764221729502231</v>
+        <v>0.81485660403791371</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="19">
         <v>4000</v>
       </c>
@@ -14059,15 +14059,15 @@
       </c>
       <c r="L31" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M31" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N31" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O31" s="28">
         <v>37.5</v>
@@ -14077,24 +14077,24 @@
       </c>
       <c r="Q31" s="14">
         <f t="shared" si="2"/>
-        <v>0.73080670956547145</v>
+        <v>0.64310990441761495</v>
       </c>
       <c r="R31" s="20">
         <v>135</v>
       </c>
       <c r="S31" s="14">
         <f t="shared" si="3"/>
-        <v>0.8461972426547566</v>
+        <v>0.73080670956547145</v>
       </c>
       <c r="T31" s="20">
         <v>135</v>
       </c>
       <c r="U31" s="14">
         <f t="shared" si="4"/>
-        <v>1.0048592256525233</v>
+        <v>0.8461972426547566</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="19">
         <v>4000</v>
       </c>
@@ -14123,15 +14123,15 @@
       </c>
       <c r="L32" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M32" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N32" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O32" s="28">
         <v>37.5</v>
@@ -14141,24 +14141,24 @@
       </c>
       <c r="Q32" s="14">
         <f t="shared" si="2"/>
-        <v>0.75787362473456299</v>
+        <v>0.66692878976641545</v>
       </c>
       <c r="R32" s="20">
         <v>140</v>
       </c>
       <c r="S32" s="14">
         <f t="shared" si="3"/>
-        <v>0.87753788127159937</v>
+        <v>0.75787362473456299</v>
       </c>
       <c r="T32" s="20">
         <v>140</v>
       </c>
       <c r="U32" s="14">
         <f t="shared" si="4"/>
-        <v>1.042076234010024</v>
+        <v>0.87753788127159937</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="19">
         <v>4000</v>
       </c>
@@ -14187,15 +14187,15 @@
       </c>
       <c r="L33" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M33" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N33" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O33" s="28">
         <v>37.5</v>
@@ -14205,24 +14205,24 @@
       </c>
       <c r="Q33" s="14">
         <f t="shared" si="2"/>
-        <v>0.78494053990365453</v>
+        <v>0.69074767511521606</v>
       </c>
       <c r="R33" s="20">
         <v>145</v>
       </c>
       <c r="S33" s="14">
         <f t="shared" si="3"/>
-        <v>0.90887851988844226</v>
+        <v>0.78494053990365453</v>
       </c>
       <c r="T33" s="20">
         <v>145</v>
       </c>
       <c r="U33" s="14">
         <f t="shared" si="4"/>
-        <v>1.079293242367525</v>
+        <v>0.90887851988844226</v>
       </c>
     </row>
-    <row r="34" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="31">
         <v>4000</v>
       </c>
@@ -14251,15 +14251,15 @@
       </c>
       <c r="L34" s="41">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M34" s="42">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N34" s="41">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O34" s="35">
         <v>37.5</v>
@@ -14269,21 +14269,21 @@
       </c>
       <c r="Q34" s="40">
         <f t="shared" si="2"/>
-        <v>0.81200745507274608</v>
+        <v>0.71456656046401656</v>
       </c>
       <c r="R34" s="21">
         <v>150</v>
       </c>
       <c r="S34" s="40">
         <f t="shared" si="3"/>
-        <v>0.94021915850528504</v>
+        <v>0.81200745507274608</v>
       </c>
       <c r="T34" s="21">
         <v>150</v>
       </c>
       <c r="U34" s="40">
         <f t="shared" si="4"/>
-        <v>1.1165102507250257</v>
+        <v>0.94021915850528504</v>
       </c>
     </row>
   </sheetData>
@@ -14301,28 +14301,28 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D5" s="19">
         <v>4000</v>
       </c>
@@ -14459,15 +14459,15 @@
       </c>
       <c r="L5" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N5" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O5" s="28">
         <v>37.5</v>
@@ -14477,24 +14477,24 @@
       </c>
       <c r="Q5" s="14">
         <f>(O5*P5)/(K5*L5*G5)</f>
-        <v>2.3290245889720534E-2</v>
+        <v>2.0495416382954074E-2</v>
       </c>
       <c r="R5" s="19">
         <v>5</v>
       </c>
       <c r="S5" s="14">
         <f>(O5*R5)/(K5*M5*G5)</f>
-        <v>2.6967653135465883E-2</v>
+        <v>2.3290245889720534E-2</v>
       </c>
       <c r="T5" s="19">
         <v>5</v>
       </c>
       <c r="U5" s="14">
         <f>(O5*T5)/(K5*N5*G5)</f>
-        <v>3.2024088098365738E-2</v>
+        <v>2.6967653135465883E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D6" s="19">
         <v>4000</v>
       </c>
@@ -14523,15 +14523,15 @@
       </c>
       <c r="L6" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M6" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N6" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O6" s="28">
         <v>37.5</v>
@@ -14541,24 +14541,24 @@
       </c>
       <c r="Q6" s="14">
         <f t="shared" ref="Q6:Q34" si="2">(O6*P6)/(K6*L6*G6)</f>
-        <v>4.6580491779441069E-2</v>
+        <v>4.0990832765908147E-2</v>
       </c>
       <c r="R6" s="20">
         <v>10</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" ref="S6:S34" si="3">(O6*R6)/(K6*M6*G6)</f>
-        <v>5.3935306270931765E-2</v>
+        <v>4.6580491779441069E-2</v>
       </c>
       <c r="T6" s="20">
         <v>10</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" ref="U6:U34" si="4">(O6*T6)/(K6*N6*G6)</f>
-        <v>6.4048176196731477E-2</v>
+        <v>5.3935306270931765E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" s="19">
         <v>4000</v>
       </c>
@@ -14587,15 +14587,15 @@
       </c>
       <c r="L7" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M7" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N7" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O7" s="28">
         <v>37.5</v>
@@ -14605,24 +14605,24 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="2"/>
-        <v>6.9870737669161603E-2</v>
+        <v>6.1486249148862221E-2</v>
       </c>
       <c r="R7" s="20">
         <v>15</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="3"/>
-        <v>8.0902959406397648E-2</v>
+        <v>6.9870737669161603E-2</v>
       </c>
       <c r="T7" s="20">
         <v>15</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="4"/>
-        <v>9.6072264295097201E-2</v>
+        <v>8.0902959406397648E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>4000</v>
       </c>
@@ -14651,15 +14651,15 @@
       </c>
       <c r="L8" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M8" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N8" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="28">
         <v>37.5</v>
@@ -14669,24 +14669,24 @@
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="2"/>
-        <v>9.3160983558882138E-2</v>
+        <v>8.1981665531816295E-2</v>
       </c>
       <c r="R8" s="20">
         <v>20</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="3"/>
-        <v>0.10787061254186353</v>
+        <v>9.3160983558882138E-2</v>
       </c>
       <c r="T8" s="20">
         <v>20</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="4"/>
-        <v>0.12809635239346295</v>
+        <v>0.10787061254186353</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="19">
         <v>4000</v>
       </c>
@@ -14715,15 +14715,15 @@
       </c>
       <c r="L9" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M9" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N9" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O9" s="28">
         <v>37.5</v>
@@ -14733,24 +14733,24 @@
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="2"/>
-        <v>0.11645122944860267</v>
+        <v>0.10247708191477037</v>
       </c>
       <c r="R9" s="20">
         <v>25</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="3"/>
-        <v>0.13483826567732943</v>
+        <v>0.11645122944860267</v>
       </c>
       <c r="T9" s="20">
         <v>25</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="4"/>
-        <v>0.16012044049182866</v>
+        <v>0.13483826567732943</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" s="19">
         <v>4000</v>
       </c>
@@ -14779,15 +14779,15 @@
       </c>
       <c r="L10" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M10" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N10" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O10" s="28">
         <v>37.5</v>
@@ -14797,24 +14797,24 @@
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="2"/>
-        <v>0.13974147533832321</v>
+        <v>0.12297249829772444</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="3"/>
-        <v>0.1618059188127953</v>
+        <v>0.13974147533832321</v>
       </c>
       <c r="T10" s="20">
         <v>30</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="4"/>
-        <v>0.1921445285901944</v>
+        <v>0.1618059188127953</v>
       </c>
     </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" s="19">
         <v>4000</v>
       </c>
@@ -14843,15 +14843,15 @@
       </c>
       <c r="L11" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M11" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N11" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O11" s="28">
         <v>37.5</v>
@@ -14861,24 +14861,24 @@
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
-        <v>0.16303172122804374</v>
+        <v>0.14346791468067852</v>
       </c>
       <c r="R11" s="20">
         <v>35</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="3"/>
-        <v>0.18877357194826119</v>
+        <v>0.16303172122804374</v>
       </c>
       <c r="T11" s="20">
         <v>35</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="4"/>
-        <v>0.22416861668856014</v>
+        <v>0.18877357194826119</v>
       </c>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="19">
         <v>4000</v>
       </c>
@@ -14907,15 +14907,15 @@
       </c>
       <c r="L12" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M12" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N12" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O12" s="28">
         <v>37.5</v>
@@ -14925,24 +14925,24 @@
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
-        <v>0.18632196711776428</v>
+        <v>0.16396333106363259</v>
       </c>
       <c r="R12" s="20">
         <v>40</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="3"/>
-        <v>0.21574122508372706</v>
+        <v>0.18632196711776428</v>
       </c>
       <c r="T12" s="20">
         <v>40</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="4"/>
-        <v>0.25619270478692591</v>
+        <v>0.21574122508372706</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="19">
         <v>4000</v>
       </c>
@@ -14971,15 +14971,15 @@
       </c>
       <c r="L13" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M13" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N13" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O13" s="28">
         <v>37.5</v>
@@ -14989,24 +14989,24 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>0.20961221300748481</v>
+        <v>0.18445874744658666</v>
       </c>
       <c r="R13" s="20">
         <v>45</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="3"/>
-        <v>0.24270887821919296</v>
+        <v>0.20961221300748481</v>
       </c>
       <c r="T13" s="20">
         <v>45</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>0.28821679288529162</v>
+        <v>0.24270887821919296</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <v>4000</v>
       </c>
@@ -15035,15 +15035,15 @@
       </c>
       <c r="L14" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M14" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N14" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O14" s="28">
         <v>37.5</v>
@@ -15053,24 +15053,24 @@
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>0.23290245889720534</v>
+        <v>0.20495416382954074</v>
       </c>
       <c r="R14" s="20">
         <v>50</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="3"/>
-        <v>0.26967653135465885</v>
+        <v>0.23290245889720534</v>
       </c>
       <c r="T14" s="20">
         <v>50</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>0.32024088098365733</v>
+        <v>0.26967653135465885</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>4000</v>
       </c>
@@ -15099,15 +15099,15 @@
       </c>
       <c r="L15" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M15" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N15" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O15" s="28">
         <v>37.5</v>
@@ -15117,24 +15117,24 @@
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>0.25619270478692585</v>
+        <v>0.22544958021249481</v>
       </c>
       <c r="R15" s="20">
         <v>55</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="3"/>
-        <v>0.2966441844901247</v>
+        <v>0.25619270478692585</v>
       </c>
       <c r="T15" s="20">
         <v>55</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="4"/>
-        <v>0.35226496908202309</v>
+        <v>0.2966441844901247</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>4000</v>
       </c>
@@ -15163,15 +15163,15 @@
       </c>
       <c r="L16" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M16" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N16" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O16" s="28">
         <v>37.5</v>
@@ -15181,24 +15181,24 @@
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>0.27948295067664641</v>
+        <v>0.24594499659544888</v>
       </c>
       <c r="R16" s="20">
         <v>60</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="3"/>
-        <v>0.32361183762559059</v>
+        <v>0.27948295067664641</v>
       </c>
       <c r="T16" s="20">
         <v>60</v>
       </c>
       <c r="U16" s="14">
         <f t="shared" si="4"/>
-        <v>0.3842890571803888</v>
+        <v>0.32361183762559059</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>4000</v>
       </c>
@@ -15227,15 +15227,15 @@
       </c>
       <c r="L17" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M17" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N17" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O17" s="28">
         <v>37.5</v>
@@ -15245,24 +15245,24 @@
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>0.30277319656636692</v>
+        <v>0.26644041297840293</v>
       </c>
       <c r="R17" s="20">
         <v>65</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="3"/>
-        <v>0.35057949076105649</v>
+        <v>0.30277319656636692</v>
       </c>
       <c r="T17" s="20">
         <v>65</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" si="4"/>
-        <v>0.41631314527875457</v>
+        <v>0.35057949076105649</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>4000</v>
       </c>
@@ -15291,15 +15291,15 @@
       </c>
       <c r="L18" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M18" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N18" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O18" s="28">
         <v>37.5</v>
@@ -15309,24 +15309,24 @@
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>0.32606344245608748</v>
+        <v>0.28693582936135703</v>
       </c>
       <c r="R18" s="20">
         <v>70</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="3"/>
-        <v>0.37754714389652239</v>
+        <v>0.32606344245608748</v>
       </c>
       <c r="T18" s="20">
         <v>70</v>
       </c>
       <c r="U18" s="14">
         <f t="shared" si="4"/>
-        <v>0.44833723337712028</v>
+        <v>0.37754714389652239</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>4000</v>
       </c>
@@ -15355,15 +15355,15 @@
       </c>
       <c r="L19" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M19" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N19" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O19" s="28">
         <v>37.5</v>
@@ -15373,24 +15373,24 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>0.34935368834580799</v>
+        <v>0.30743124574431108</v>
       </c>
       <c r="R19" s="20">
         <v>75</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="3"/>
-        <v>0.40451479703198823</v>
+        <v>0.34935368834580799</v>
       </c>
       <c r="T19" s="20">
         <v>75</v>
       </c>
       <c r="U19" s="14">
         <f t="shared" si="4"/>
-        <v>0.48036132147548605</v>
+        <v>0.40451479703198823</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>4000</v>
       </c>
@@ -15419,15 +15419,15 @@
       </c>
       <c r="L20" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M20" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N20" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O20" s="28">
         <v>37.5</v>
@@ -15437,24 +15437,24 @@
       </c>
       <c r="Q20" s="14">
         <f t="shared" si="2"/>
-        <v>0.37264393423552855</v>
+        <v>0.32792666212726518</v>
       </c>
       <c r="R20" s="20">
         <v>80</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="3"/>
-        <v>0.43148245016745412</v>
+        <v>0.37264393423552855</v>
       </c>
       <c r="T20" s="20">
         <v>80</v>
       </c>
       <c r="U20" s="14">
         <f t="shared" si="4"/>
-        <v>0.51238540957385181</v>
+        <v>0.43148245016745412</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>4000</v>
       </c>
@@ -15483,15 +15483,15 @@
       </c>
       <c r="L21" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M21" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N21" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O21" s="28">
         <v>37.5</v>
@@ -15501,24 +15501,24 @@
       </c>
       <c r="Q21" s="14">
         <f t="shared" si="2"/>
-        <v>0.39593418012524906</v>
+        <v>0.34842207851021922</v>
       </c>
       <c r="R21" s="20">
         <v>85</v>
       </c>
       <c r="S21" s="14">
         <f t="shared" si="3"/>
-        <v>0.45845010330292002</v>
+        <v>0.39593418012524906</v>
       </c>
       <c r="T21" s="20">
         <v>85</v>
       </c>
       <c r="U21" s="14">
         <f t="shared" si="4"/>
-        <v>0.54440949767221747</v>
+        <v>0.45845010330292002</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>4000</v>
       </c>
@@ -15547,15 +15547,15 @@
       </c>
       <c r="L22" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M22" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N22" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O22" s="28">
         <v>37.5</v>
@@ -15565,24 +15565,24 @@
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="2"/>
-        <v>0.41922442601496962</v>
+        <v>0.36891749489317333</v>
       </c>
       <c r="R22" s="20">
         <v>90</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="3"/>
-        <v>0.48541775643838592</v>
+        <v>0.41922442601496962</v>
       </c>
       <c r="T22" s="20">
         <v>90</v>
       </c>
       <c r="U22" s="14">
         <f t="shared" si="4"/>
-        <v>0.57643358577058323</v>
+        <v>0.48541775643838592</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>4000</v>
       </c>
@@ -15611,15 +15611,15 @@
       </c>
       <c r="L23" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M23" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N23" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O23" s="28">
         <v>37.5</v>
@@ -15629,24 +15629,24 @@
       </c>
       <c r="Q23" s="14">
         <f t="shared" si="2"/>
-        <v>0.44251467190469013</v>
+        <v>0.38941291127612737</v>
       </c>
       <c r="R23" s="20">
         <v>95</v>
       </c>
       <c r="S23" s="14">
         <f t="shared" si="3"/>
-        <v>0.51238540957385181</v>
+        <v>0.44251467190469013</v>
       </c>
       <c r="T23" s="20">
         <v>95</v>
       </c>
       <c r="U23" s="14">
         <f t="shared" si="4"/>
-        <v>0.608457673868949</v>
+        <v>0.51238540957385181</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>4000</v>
       </c>
@@ -15675,15 +15675,15 @@
       </c>
       <c r="L24" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M24" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N24" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O24" s="28">
         <v>37.5</v>
@@ -15693,24 +15693,24 @@
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
-        <v>0.46580491779441069</v>
+        <v>0.40990832765908147</v>
       </c>
       <c r="R24" s="20">
         <v>100</v>
       </c>
       <c r="S24" s="14">
         <f t="shared" si="3"/>
-        <v>0.53935306270931771</v>
+        <v>0.46580491779441069</v>
       </c>
       <c r="T24" s="20">
         <v>100</v>
       </c>
       <c r="U24" s="14">
         <f t="shared" si="4"/>
-        <v>0.64048176196731466</v>
+        <v>0.53935306270931771</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>4000</v>
       </c>
@@ -15739,15 +15739,15 @@
       </c>
       <c r="L25" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M25" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N25" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O25" s="28">
         <v>37.5</v>
@@ -15757,24 +15757,24 @@
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="2"/>
-        <v>0.4890951636841312</v>
+        <v>0.43040374404203552</v>
       </c>
       <c r="R25" s="20">
         <v>105</v>
       </c>
       <c r="S25" s="14">
         <f t="shared" si="3"/>
-        <v>0.56632071584478361</v>
+        <v>0.4890951636841312</v>
       </c>
       <c r="T25" s="20">
         <v>105</v>
       </c>
       <c r="U25" s="14">
         <f t="shared" si="4"/>
-        <v>0.67250585006568042</v>
+        <v>0.56632071584478361</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>4000</v>
       </c>
@@ -15803,15 +15803,15 @@
       </c>
       <c r="L26" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M26" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N26" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O26" s="28">
         <v>37.5</v>
@@ -15821,24 +15821,24 @@
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
-        <v>0.5123854095738517</v>
+        <v>0.45089916042498962</v>
       </c>
       <c r="R26" s="20">
         <v>110</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="3"/>
-        <v>0.59328836898024939</v>
+        <v>0.5123854095738517</v>
       </c>
       <c r="T26" s="20">
         <v>110</v>
       </c>
       <c r="U26" s="14">
         <f t="shared" si="4"/>
-        <v>0.70452993816404619</v>
+        <v>0.59328836898024939</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="19">
         <v>4000</v>
       </c>
@@ -15867,15 +15867,15 @@
       </c>
       <c r="L27" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N27" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O27" s="28">
         <v>37.5</v>
@@ -15885,24 +15885,24 @@
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="2"/>
-        <v>0.53567565546357232</v>
+        <v>0.47139457680794367</v>
       </c>
       <c r="R27" s="20">
         <v>115</v>
       </c>
       <c r="S27" s="14">
         <f t="shared" si="3"/>
-        <v>0.62025602211571529</v>
+        <v>0.53567565546357232</v>
       </c>
       <c r="T27" s="20">
         <v>115</v>
       </c>
       <c r="U27" s="14">
         <f t="shared" si="4"/>
-        <v>0.73655402626241195</v>
+        <v>0.62025602211571529</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="19">
         <v>4000</v>
       </c>
@@ -15931,15 +15931,15 @@
       </c>
       <c r="L28" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M28" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N28" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O28" s="28">
         <v>37.5</v>
@@ -15949,24 +15949,24 @@
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="2"/>
-        <v>0.55896590135329283</v>
+        <v>0.49188999319089777</v>
       </c>
       <c r="R28" s="20">
         <v>120</v>
       </c>
       <c r="S28" s="14">
         <f t="shared" si="3"/>
-        <v>0.64722367525118119</v>
+        <v>0.55896590135329283</v>
       </c>
       <c r="T28" s="20">
         <v>120</v>
       </c>
       <c r="U28" s="14">
         <f t="shared" si="4"/>
-        <v>0.76857811436077761</v>
+        <v>0.64722367525118119</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="19">
         <v>4000</v>
       </c>
@@ -15995,15 +15995,15 @@
       </c>
       <c r="L29" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M29" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N29" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O29" s="28">
         <v>37.5</v>
@@ -16013,24 +16013,24 @@
       </c>
       <c r="Q29" s="14">
         <f t="shared" si="2"/>
-        <v>0.58225614724301333</v>
+        <v>0.51238540957385181</v>
       </c>
       <c r="R29" s="20">
         <v>125</v>
       </c>
       <c r="S29" s="14">
         <f t="shared" si="3"/>
-        <v>0.67419132838664708</v>
+        <v>0.58225614724301333</v>
       </c>
       <c r="T29" s="20">
         <v>125</v>
       </c>
       <c r="U29" s="14">
         <f t="shared" si="4"/>
-        <v>0.80060220245914338</v>
+        <v>0.67419132838664708</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>4000</v>
       </c>
@@ -16059,15 +16059,15 @@
       </c>
       <c r="L30" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M30" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N30" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O30" s="28">
         <v>37.5</v>
@@ -16077,24 +16077,24 @@
       </c>
       <c r="Q30" s="14">
         <f t="shared" si="2"/>
-        <v>0.60554639313273384</v>
+        <v>0.53288082595680586</v>
       </c>
       <c r="R30" s="20">
         <v>130</v>
       </c>
       <c r="S30" s="14">
         <f t="shared" si="3"/>
-        <v>0.70115898152211298</v>
+        <v>0.60554639313273384</v>
       </c>
       <c r="T30" s="20">
         <v>130</v>
       </c>
       <c r="U30" s="14">
         <f t="shared" si="4"/>
-        <v>0.83262629055750914</v>
+        <v>0.70115898152211298</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="19">
         <v>4000</v>
       </c>
@@ -16123,15 +16123,15 @@
       </c>
       <c r="L31" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M31" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N31" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O31" s="28">
         <v>37.5</v>
@@ -16141,24 +16141,24 @@
       </c>
       <c r="Q31" s="14">
         <f t="shared" si="2"/>
-        <v>0.62883663902245446</v>
+        <v>0.55337624233976002</v>
       </c>
       <c r="R31" s="20">
         <v>135</v>
       </c>
       <c r="S31" s="14">
         <f t="shared" si="3"/>
-        <v>0.72812663465757888</v>
+        <v>0.62883663902245446</v>
       </c>
       <c r="T31" s="20">
         <v>135</v>
       </c>
       <c r="U31" s="14">
         <f t="shared" si="4"/>
-        <v>0.8646503786558748</v>
+        <v>0.72812663465757888</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="19">
         <v>4000</v>
       </c>
@@ -16187,15 +16187,15 @@
       </c>
       <c r="L32" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M32" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N32" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O32" s="28">
         <v>37.5</v>
@@ -16205,24 +16205,24 @@
       </c>
       <c r="Q32" s="14">
         <f t="shared" si="2"/>
-        <v>0.65212688491217496</v>
+        <v>0.57387165872271406</v>
       </c>
       <c r="R32" s="20">
         <v>140</v>
       </c>
       <c r="S32" s="14">
         <f t="shared" si="3"/>
-        <v>0.75509428779304477</v>
+        <v>0.65212688491217496</v>
       </c>
       <c r="T32" s="20">
         <v>140</v>
       </c>
       <c r="U32" s="14">
         <f t="shared" si="4"/>
-        <v>0.89667446675424056</v>
+        <v>0.75509428779304477</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="19">
         <v>4000</v>
       </c>
@@ -16251,15 +16251,15 @@
       </c>
       <c r="L33" s="36">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M33" s="28">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N33" s="28">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O33" s="28">
         <v>37.5</v>
@@ -16269,24 +16269,24 @@
       </c>
       <c r="Q33" s="14">
         <f t="shared" si="2"/>
-        <v>0.67541713080189547</v>
+        <v>0.59436707510566811</v>
       </c>
       <c r="R33" s="20">
         <v>145</v>
       </c>
       <c r="S33" s="14">
         <f t="shared" si="3"/>
-        <v>0.78206194092851067</v>
+        <v>0.67541713080189547</v>
       </c>
       <c r="T33" s="20">
         <v>145</v>
       </c>
       <c r="U33" s="14">
         <f t="shared" si="4"/>
-        <v>0.92869855485260633</v>
+        <v>0.78206194092851067</v>
       </c>
     </row>
-    <row r="34" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="31">
         <v>4000</v>
       </c>
@@ -16315,15 +16315,15 @@
       </c>
       <c r="L34" s="41">
         <f>Variable!B$6</f>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="M34" s="42">
         <f>Variable!C$6</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N34" s="41">
         <f>Variable!D$6</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O34" s="35">
         <v>37.5</v>
@@ -16333,21 +16333,21 @@
       </c>
       <c r="Q34" s="40">
         <f t="shared" si="2"/>
-        <v>0.69870737669161598</v>
+        <v>0.61486249148862215</v>
       </c>
       <c r="R34" s="21">
         <v>150</v>
       </c>
       <c r="S34" s="40">
         <f t="shared" si="3"/>
-        <v>0.80902959406397645</v>
+        <v>0.69870737669161598</v>
       </c>
       <c r="T34" s="21">
         <v>150</v>
       </c>
       <c r="U34" s="40">
         <f t="shared" si="4"/>
-        <v>0.96072264295097209</v>
+        <v>0.80902959406397645</v>
       </c>
     </row>
   </sheetData>

--- a/Matching Diagram/TakeOff.xlsx
+++ b/Matching Diagram/TakeOff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D3C6B-9511-4113-8986-BE8A590756AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D16A1D1-631A-4FEA-847F-591FD7B6C20A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="13" r:id="rId1"/>
@@ -8053,8 +8053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5007D7D2-129D-4AE5-A8F9-974B0605861D}">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8105,7 +8105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79673526-97EE-40AD-99B5-97FBAABDA02B}">
   <dimension ref="D2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -12233,7 +12233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8EC63F-F19A-458B-B1F0-E1A1562DF35A}">
   <dimension ref="D2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L34" sqref="L34:N34"/>
     </sheetView>
   </sheetViews>
